--- a/data/sisor-dados/base_limite_cota.xlsx
+++ b/data/sisor-dados/base_limite_cota.xlsx
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
@@ -532,31 +532,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11953000</v>
+        <v>276497900</v>
       </c>
       <c r="H2" t="n">
-        <v>11953000</v>
+        <v>276497900</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11953000</v>
+        <v>290333000</v>
       </c>
       <c r="K2" t="n">
-        <v>11953000</v>
+        <v>290333000</v>
       </c>
       <c r="L2" t="n">
-        <v>11953000</v>
+        <v>304840000</v>
       </c>
       <c r="M2" t="n">
-        <v>11953000</v>
+        <v>304840000</v>
       </c>
       <c r="N2" t="n">
-        <v>11953000</v>
+        <v>320080000</v>
       </c>
       <c r="O2" t="n">
-        <v>11953000</v>
+        <v>320080000</v>
       </c>
     </row>
     <row r="3">
@@ -569,43 +569,43 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>30000</v>
+        <v>14800000</v>
       </c>
       <c r="H3" t="n">
-        <v>30000</v>
+        <v>14800000</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>30000</v>
+        <v>15540000</v>
       </c>
       <c r="K3" t="n">
-        <v>30000</v>
+        <v>15540000</v>
       </c>
       <c r="L3" t="n">
-        <v>30000</v>
+        <v>16317000</v>
       </c>
       <c r="M3" t="n">
-        <v>30000</v>
+        <v>16317000</v>
       </c>
       <c r="N3" t="n">
-        <v>30000</v>
+        <v>17133000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>17133000</v>
       </c>
     </row>
     <row r="4">
@@ -618,43 +618,43 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>14800000</v>
+        <v>69355000</v>
       </c>
       <c r="H4" t="n">
-        <v>14800000</v>
+        <v>69355000</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15540000</v>
+        <v>72822000</v>
       </c>
       <c r="K4" t="n">
-        <v>15540000</v>
+        <v>72822000</v>
       </c>
       <c r="L4" t="n">
-        <v>16317000</v>
+        <v>76464000</v>
       </c>
       <c r="M4" t="n">
-        <v>16317000</v>
+        <v>76464000</v>
       </c>
       <c r="N4" t="n">
-        <v>17133000</v>
+        <v>80287000</v>
       </c>
       <c r="O4" t="n">
-        <v>17133000</v>
+        <v>80287000</v>
       </c>
     </row>
     <row r="5">
@@ -667,43 +667,43 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>69355000</v>
+        <v>1291921833</v>
       </c>
       <c r="H5" t="n">
-        <v>69355000</v>
+        <v>1291921833</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>72822000</v>
+        <v>1384914300</v>
       </c>
       <c r="K5" t="n">
-        <v>72822000</v>
+        <v>1384914300</v>
       </c>
       <c r="L5" t="n">
-        <v>76464000</v>
+        <v>1490766900</v>
       </c>
       <c r="M5" t="n">
-        <v>76464000</v>
+        <v>1490766900</v>
       </c>
       <c r="N5" t="n">
-        <v>80287000</v>
+        <v>1603605000</v>
       </c>
       <c r="O5" t="n">
-        <v>80287000</v>
+        <v>1603605000</v>
       </c>
     </row>
     <row r="6">
@@ -722,37 +722,37 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1291921833</v>
+        <v>378228000</v>
       </c>
       <c r="H6" t="n">
-        <v>1291921833</v>
+        <v>378228000</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1384914300</v>
+        <v>397867700</v>
       </c>
       <c r="K6" t="n">
-        <v>1384914300</v>
+        <v>397867700</v>
       </c>
       <c r="L6" t="n">
-        <v>1490766900</v>
+        <v>420261100</v>
       </c>
       <c r="M6" t="n">
-        <v>1490766900</v>
+        <v>420261100</v>
       </c>
       <c r="N6" t="n">
-        <v>1603605000</v>
+        <v>444024000</v>
       </c>
       <c r="O6" t="n">
-        <v>1603605000</v>
+        <v>444024000</v>
       </c>
     </row>
     <row r="7">
@@ -765,43 +765,43 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>276497900</v>
+        <v>2000000</v>
       </c>
       <c r="H7" t="n">
-        <v>276497900</v>
+        <v>2000000</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>290333000</v>
+        <v>2000000</v>
       </c>
       <c r="K7" t="n">
-        <v>290333000</v>
+        <v>2000000</v>
       </c>
       <c r="L7" t="n">
-        <v>304840000</v>
+        <v>2000000</v>
       </c>
       <c r="M7" t="n">
-        <v>304840000</v>
+        <v>2000000</v>
       </c>
       <c r="N7" t="n">
-        <v>320080000</v>
+        <v>2000000</v>
       </c>
       <c r="O7" t="n">
-        <v>320080000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="8">
@@ -814,43 +814,43 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>378228000</v>
+        <v>11953000</v>
       </c>
       <c r="H8" t="n">
-        <v>378228000</v>
+        <v>11953000</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>397867700</v>
+        <v>11953000</v>
       </c>
       <c r="K8" t="n">
-        <v>397867700</v>
+        <v>11953000</v>
       </c>
       <c r="L8" t="n">
-        <v>420261100</v>
+        <v>11953000</v>
       </c>
       <c r="M8" t="n">
-        <v>420261100</v>
+        <v>11953000</v>
       </c>
       <c r="N8" t="n">
-        <v>444024000</v>
+        <v>11953000</v>
       </c>
       <c r="O8" t="n">
-        <v>444024000</v>
+        <v>11953000</v>
       </c>
     </row>
     <row r="9">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>10</v>
@@ -875,31 +875,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2000000</v>
+        <v>30000</v>
       </c>
       <c r="H9" t="n">
-        <v>2000000</v>
+        <v>30000</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2000000</v>
+        <v>30000</v>
       </c>
       <c r="K9" t="n">
-        <v>2000000</v>
+        <v>30000</v>
       </c>
       <c r="L9" t="n">
-        <v>2000000</v>
+        <v>30000</v>
       </c>
       <c r="M9" t="n">
-        <v>2000000</v>
+        <v>30000</v>
       </c>
       <c r="N9" t="n">
-        <v>2000000</v>
+        <v>30000</v>
       </c>
       <c r="O9" t="n">
-        <v>2000000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="10">
@@ -918,37 +918,37 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>312612682</v>
+        <v>687358884</v>
       </c>
       <c r="H10" t="n">
-        <v>312612682</v>
+        <v>687358884</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>725060306</v>
       </c>
       <c r="K10" t="n">
-        <v>326055027</v>
+        <v>725060306</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>756237899</v>
       </c>
       <c r="M10" t="n">
-        <v>340075393</v>
+        <v>756237899</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>788756128</v>
       </c>
       <c r="O10" t="n">
-        <v>354698635</v>
+        <v>788756128</v>
       </c>
     </row>
     <row r="11">
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
@@ -973,31 +973,31 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>687358884</v>
+        <v>18432210</v>
       </c>
       <c r="H11" t="n">
-        <v>687358884</v>
+        <v>18432210</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>19224795</v>
       </c>
       <c r="K11" t="n">
-        <v>725060306</v>
+        <v>19224795</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>20051461</v>
       </c>
       <c r="M11" t="n">
-        <v>756237899</v>
+        <v>20051461</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>20913674</v>
       </c>
       <c r="O11" t="n">
-        <v>788756128</v>
+        <v>20913674</v>
       </c>
     </row>
     <row r="12">
@@ -1016,37 +1016,37 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1000</v>
+        <v>139003297</v>
       </c>
       <c r="H12" t="n">
-        <v>1000</v>
+        <v>139003297</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>152862843</v>
       </c>
       <c r="K12" t="n">
-        <v>1000</v>
+        <v>152862843</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>159435946</v>
       </c>
       <c r="M12" t="n">
-        <v>1000</v>
+        <v>159435946</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>166291692</v>
       </c>
       <c r="O12" t="n">
-        <v>1000</v>
+        <v>166291692</v>
       </c>
     </row>
     <row r="13">
@@ -1080,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>77541250</v>
       </c>
       <c r="K13" t="n">
         <v>77541250</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>80875524</v>
       </c>
       <c r="M13" t="n">
         <v>80875524</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>84353172</v>
       </c>
       <c r="O13" t="n">
         <v>84353172</v>
@@ -1108,43 +1108,43 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>139003297</v>
+        <v>312612682</v>
       </c>
       <c r="H14" t="n">
-        <v>139003297</v>
+        <v>312612682</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>326055027</v>
       </c>
       <c r="K14" t="n">
-        <v>152862843</v>
+        <v>326055027</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>340075393</v>
       </c>
       <c r="M14" t="n">
-        <v>159435946</v>
+        <v>340075393</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>354698635</v>
       </c>
       <c r="O14" t="n">
-        <v>166291692</v>
+        <v>354698635</v>
       </c>
     </row>
     <row r="15">
@@ -1157,43 +1157,43 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>18432210</v>
+        <v>1000</v>
       </c>
       <c r="H15" t="n">
-        <v>18432210</v>
+        <v>1000</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K15" t="n">
-        <v>19224795</v>
+        <v>1000</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M15" t="n">
-        <v>20051461</v>
+        <v>1000</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O15" t="n">
-        <v>20913674</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -1206,43 +1206,43 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>756262799</v>
+        <v>1146518247</v>
       </c>
       <c r="H16" t="n">
-        <v>756262799</v>
+        <v>1146518247</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1192378977</v>
       </c>
       <c r="K16" t="n">
-        <v>786513311</v>
+        <v>1192378977</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1237689378</v>
       </c>
       <c r="M16" t="n">
-        <v>816400817</v>
+        <v>1237689378</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1284721574</v>
       </c>
       <c r="O16" t="n">
-        <v>847424047</v>
+        <v>1284721574</v>
       </c>
     </row>
     <row r="17">
@@ -1261,37 +1261,37 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1146518247</v>
+        <v>1000</v>
       </c>
       <c r="H17" t="n">
-        <v>1146518247</v>
+        <v>1000</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K17" t="n">
-        <v>1192378977</v>
+        <v>1000</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M17" t="n">
-        <v>1237689378</v>
+        <v>1000</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O17" t="n">
-        <v>1284721574</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -1325,19 +1325,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>8730036614</v>
       </c>
       <c r="K18" t="n">
         <v>8730036614</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>9061778004</v>
       </c>
       <c r="M18" t="n">
         <v>9061778004</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>9406125569</v>
       </c>
       <c r="O18" t="n">
         <v>9406125569</v>
@@ -1353,43 +1353,43 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1000</v>
+        <v>756262799</v>
       </c>
       <c r="H19" t="n">
-        <v>1000</v>
+        <v>756262799</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>786513311</v>
       </c>
       <c r="K19" t="n">
-        <v>1000</v>
+        <v>786513311</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>816400817</v>
       </c>
       <c r="M19" t="n">
-        <v>1000</v>
+        <v>816400817</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>847424047</v>
       </c>
       <c r="O19" t="n">
-        <v>1000</v>
+        <v>847424047</v>
       </c>
     </row>
     <row r="20">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>10</v>
@@ -1414,31 +1414,31 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>117606891</v>
+        <v>15583054</v>
       </c>
       <c r="H20" t="n">
-        <v>117606891</v>
+        <v>15583054</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>121756978</v>
+        <v>16128460</v>
       </c>
       <c r="K20" t="n">
-        <v>121756978</v>
+        <v>16128460</v>
       </c>
       <c r="L20" t="n">
-        <v>126050667</v>
+        <v>16692957</v>
       </c>
       <c r="M20" t="n">
-        <v>126050667</v>
+        <v>16692957</v>
       </c>
       <c r="N20" t="n">
-        <v>130502161</v>
+        <v>17277210</v>
       </c>
       <c r="O20" t="n">
-        <v>130502161</v>
+        <v>17277210</v>
       </c>
     </row>
     <row r="21">
@@ -1451,43 +1451,43 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>11475660</v>
+        <v>8396854</v>
       </c>
       <c r="H21" t="n">
-        <v>11475660</v>
+        <v>8396854</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>11877308</v>
+        <v>8690743</v>
       </c>
       <c r="K21" t="n">
-        <v>11877308</v>
+        <v>8690743</v>
       </c>
       <c r="L21" t="n">
-        <v>12293013</v>
+        <v>8994919</v>
       </c>
       <c r="M21" t="n">
-        <v>12293013</v>
+        <v>8994919</v>
       </c>
       <c r="N21" t="n">
-        <v>12723269</v>
+        <v>9309742</v>
       </c>
       <c r="O21" t="n">
-        <v>12723269</v>
+        <v>9309742</v>
       </c>
     </row>
     <row r="22">
@@ -1506,37 +1506,37 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>14629453</v>
+        <v>117606891</v>
       </c>
       <c r="H22" t="n">
-        <v>14629453</v>
+        <v>117606891</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>15141484</v>
+        <v>121756978</v>
       </c>
       <c r="K22" t="n">
-        <v>15141484</v>
+        <v>121756978</v>
       </c>
       <c r="L22" t="n">
-        <v>15674436</v>
+        <v>126050667</v>
       </c>
       <c r="M22" t="n">
-        <v>15674436</v>
+        <v>126050667</v>
       </c>
       <c r="N22" t="n">
-        <v>16219936</v>
+        <v>130502161</v>
       </c>
       <c r="O22" t="n">
-        <v>16219936</v>
+        <v>130502161</v>
       </c>
     </row>
     <row r="23">
@@ -1598,43 +1598,43 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>8396854</v>
+        <v>11475660</v>
       </c>
       <c r="H24" t="n">
-        <v>8396854</v>
+        <v>11475660</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>8690743</v>
+        <v>11877308</v>
       </c>
       <c r="K24" t="n">
-        <v>8690743</v>
+        <v>11877308</v>
       </c>
       <c r="L24" t="n">
-        <v>8994919</v>
+        <v>12293013</v>
       </c>
       <c r="M24" t="n">
-        <v>8994919</v>
+        <v>12293013</v>
       </c>
       <c r="N24" t="n">
-        <v>9309742</v>
+        <v>12723269</v>
       </c>
       <c r="O24" t="n">
-        <v>9309742</v>
+        <v>12723269</v>
       </c>
     </row>
     <row r="25">
@@ -1647,43 +1647,43 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>15583054</v>
+        <v>14629453</v>
       </c>
       <c r="H25" t="n">
-        <v>15583054</v>
+        <v>14629453</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>16128460</v>
+        <v>15141484</v>
       </c>
       <c r="K25" t="n">
-        <v>16128460</v>
+        <v>15141484</v>
       </c>
       <c r="L25" t="n">
-        <v>16692957</v>
+        <v>15674436</v>
       </c>
       <c r="M25" t="n">
-        <v>16692957</v>
+        <v>15674436</v>
       </c>
       <c r="N25" t="n">
-        <v>17277210</v>
+        <v>16219936</v>
       </c>
       <c r="O25" t="n">
-        <v>17277210</v>
+        <v>16219936</v>
       </c>
     </row>
     <row r="26">
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>10</v>
@@ -2002,31 +2002,31 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3136462</v>
+        <v>371866796</v>
       </c>
       <c r="H32" t="n">
-        <v>3136462</v>
+        <v>371866796</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3136462</v>
+        <v>380973220</v>
       </c>
       <c r="K32" t="n">
-        <v>3136462</v>
+        <v>380973220</v>
       </c>
       <c r="L32" t="n">
-        <v>3136462</v>
+        <v>390302646</v>
       </c>
       <c r="M32" t="n">
-        <v>3136462</v>
+        <v>390302646</v>
       </c>
       <c r="N32" t="n">
-        <v>3136462</v>
+        <v>399860535</v>
       </c>
       <c r="O32" t="n">
-        <v>3136462</v>
+        <v>399860535</v>
       </c>
     </row>
     <row r="33">
@@ -2045,37 +2045,37 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>564929952</v>
+        <v>29657457</v>
       </c>
       <c r="H33" t="n">
-        <v>564929952</v>
+        <v>29657457</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>30965351</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>30965351</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>32330923</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>32330923</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>33756717</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>33756717</v>
       </c>
     </row>
     <row r="34">
@@ -2088,43 +2088,43 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24168517</v>
+        <v>747417922</v>
       </c>
       <c r="H34" t="n">
-        <v>24168517</v>
+        <v>747417922</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24760366</v>
+        <v>1000</v>
       </c>
       <c r="K34" t="n">
-        <v>24760366</v>
+        <v>1000</v>
       </c>
       <c r="L34" t="n">
-        <v>25366708</v>
+        <v>1000</v>
       </c>
       <c r="M34" t="n">
-        <v>25366708</v>
+        <v>1000</v>
       </c>
       <c r="N34" t="n">
-        <v>25987899</v>
+        <v>1000</v>
       </c>
       <c r="O34" t="n">
-        <v>25987899</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>10</v>
@@ -2149,31 +2149,31 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>371866796</v>
+        <v>3136462</v>
       </c>
       <c r="H35" t="n">
-        <v>371866796</v>
+        <v>3136462</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>380973220</v>
+        <v>3136462</v>
       </c>
       <c r="K35" t="n">
-        <v>380973220</v>
+        <v>3136462</v>
       </c>
       <c r="L35" t="n">
-        <v>390302646</v>
+        <v>3136462</v>
       </c>
       <c r="M35" t="n">
-        <v>390302646</v>
+        <v>3136462</v>
       </c>
       <c r="N35" t="n">
-        <v>399860535</v>
+        <v>3136462</v>
       </c>
       <c r="O35" t="n">
-        <v>399860535</v>
+        <v>3136462</v>
       </c>
     </row>
     <row r="36">
@@ -2192,37 +2192,37 @@
         <v>10</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>29657457</v>
+        <v>564929952</v>
       </c>
       <c r="H36" t="n">
-        <v>29657457</v>
+        <v>564929952</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>30965351</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>30965351</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>32330923</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>32330923</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>33756717</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>33756717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2235,43 +2235,43 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>747417922</v>
+        <v>24168517</v>
       </c>
       <c r="H37" t="n">
-        <v>747417922</v>
+        <v>24168517</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1000</v>
+        <v>24760366</v>
       </c>
       <c r="K37" t="n">
-        <v>1000</v>
+        <v>24760366</v>
       </c>
       <c r="L37" t="n">
-        <v>1000</v>
+        <v>25366708</v>
       </c>
       <c r="M37" t="n">
-        <v>1000</v>
+        <v>25366708</v>
       </c>
       <c r="N37" t="n">
-        <v>1000</v>
+        <v>25987899</v>
       </c>
       <c r="O37" t="n">
-        <v>1000</v>
+        <v>25987899</v>
       </c>
     </row>
     <row r="38">
@@ -2284,43 +2284,43 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1663225</v>
+        <v>2885700000</v>
       </c>
       <c r="H38" t="n">
-        <v>1663225</v>
+        <v>2885700000</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>3055848740</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>3055848740</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>3150629883</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>3150629883</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>3227681196</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>3227681196</v>
       </c>
     </row>
     <row r="39">
@@ -2333,22 +2333,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>5382500</v>
+        <v>1663225</v>
       </c>
       <c r="H39" t="n">
-        <v>5000000</v>
+        <v>1663225</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -2357,19 +2357,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>5382500</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>5382500</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>5382500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2382,43 +2382,43 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>10</v>
       </c>
       <c r="E40" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1000</v>
+        <v>33336775</v>
       </c>
       <c r="H40" t="n">
-        <v>1000</v>
+        <v>33336775</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>37677500</v>
       </c>
       <c r="K40" t="n">
-        <v>1000</v>
+        <v>37677500</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>37677500</v>
       </c>
       <c r="M40" t="n">
-        <v>1000</v>
+        <v>37677500</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>37677500</v>
       </c>
       <c r="O40" t="n">
-        <v>1000</v>
+        <v>37677500</v>
       </c>
     </row>
     <row r="41">
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>10</v>
@@ -2443,31 +2443,31 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>37677500</v>
+        <v>392172255</v>
       </c>
       <c r="H41" t="n">
-        <v>33336775</v>
+        <v>392172255</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>490041497</v>
       </c>
       <c r="K41" t="n">
-        <v>37677500</v>
+        <v>490041497</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>509643157</v>
       </c>
       <c r="M41" t="n">
-        <v>37677500</v>
+        <v>509643157</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>530028883</v>
       </c>
       <c r="O41" t="n">
-        <v>37677500</v>
+        <v>530028883</v>
       </c>
     </row>
     <row r="42">
@@ -2501,19 +2501,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>227503205</v>
       </c>
       <c r="K42" t="n">
         <v>227503205</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>233589133</v>
       </c>
       <c r="M42" t="n">
         <v>233589133</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>239918498</v>
       </c>
       <c r="O42" t="n">
         <v>239918498</v>
@@ -2535,37 +2535,37 @@
         <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2905541727</v>
+        <v>1000</v>
       </c>
       <c r="H43" t="n">
-        <v>2885700000</v>
+        <v>1000</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K43" t="n">
-        <v>3055848740</v>
+        <v>1000</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M43" t="n">
-        <v>3150629883</v>
+        <v>1000</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O43" t="n">
-        <v>3227681196</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44">
@@ -2599,19 +2599,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>152208919</v>
       </c>
       <c r="K44" t="n">
         <v>152208919</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>155253097</v>
       </c>
       <c r="M44" t="n">
         <v>155253097</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>158358159</v>
       </c>
       <c r="O44" t="n">
         <v>158358159</v>
@@ -2627,7 +2627,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>10</v>
@@ -2639,31 +2639,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>471193747</v>
+        <v>5000000</v>
       </c>
       <c r="H45" t="n">
-        <v>392172255</v>
+        <v>5000000</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>5382500</v>
       </c>
       <c r="K45" t="n">
-        <v>490041497</v>
+        <v>5382500</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>5382500</v>
       </c>
       <c r="M45" t="n">
-        <v>509643157</v>
+        <v>5382500</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>5382500</v>
       </c>
       <c r="O45" t="n">
-        <v>530028883</v>
+        <v>5382500</v>
       </c>
     </row>
     <row r="46">
@@ -3267,7 +3267,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
@@ -3276,31 +3276,31 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>250000</v>
+        <v>11192448</v>
       </c>
       <c r="H58" t="n">
-        <v>250000</v>
+        <v>11192448</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>250000</v>
+        <v>11192447</v>
       </c>
       <c r="K58" t="n">
-        <v>250000</v>
+        <v>11192447</v>
       </c>
       <c r="L58" t="n">
-        <v>250000</v>
+        <v>11192447</v>
       </c>
       <c r="M58" t="n">
-        <v>250000</v>
+        <v>11192447</v>
       </c>
       <c r="N58" t="n">
-        <v>250000</v>
+        <v>11192447</v>
       </c>
       <c r="O58" t="n">
-        <v>250000</v>
+        <v>11192447</v>
       </c>
     </row>
     <row r="59">
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>10</v>
@@ -3325,31 +3325,31 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>17087437</v>
+        <v>250000</v>
       </c>
       <c r="H59" t="n">
-        <v>17087437</v>
+        <v>250000</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>15992529</v>
+        <v>250000</v>
       </c>
       <c r="K59" t="n">
-        <v>15992529</v>
+        <v>250000</v>
       </c>
       <c r="L59" t="n">
-        <v>16828938</v>
+        <v>250000</v>
       </c>
       <c r="M59" t="n">
-        <v>16828938</v>
+        <v>250000</v>
       </c>
       <c r="N59" t="n">
-        <v>17709091</v>
+        <v>250000</v>
       </c>
       <c r="O59" t="n">
-        <v>17709091</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="60">
@@ -3362,10 +3362,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
@@ -3374,31 +3374,31 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>11192448</v>
+        <v>70200000</v>
       </c>
       <c r="H60" t="n">
-        <v>11192448</v>
+        <v>70200000</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>11192447</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>11192447</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>11192447</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>11192447</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>11192447</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>11192447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3414,40 +3414,40 @@
         <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E61" t="n">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>964177</v>
+        <v>9703876</v>
       </c>
       <c r="H61" t="n">
-        <v>964177</v>
+        <v>9703876</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>864261</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>864261</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>909462</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>909462</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>957027</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>957027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3463,7 +3463,7 @@
         <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
@@ -3472,31 +3472,31 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>9703876</v>
+        <v>4533664</v>
       </c>
       <c r="H62" t="n">
-        <v>9703876</v>
+        <v>4533664</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>4770774</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>4770774</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>5020286</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>5020286</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>5282847</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>5282847</v>
       </c>
     </row>
     <row r="63">
@@ -3558,43 +3558,43 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>70200000</v>
+        <v>3277097</v>
       </c>
       <c r="H64" t="n">
-        <v>70200000</v>
+        <v>3277097</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>3357348</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>3357348</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>3439565</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>3439565</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>3523795</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>3523795</v>
       </c>
     </row>
     <row r="65">
@@ -3607,43 +3607,43 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E65" t="n">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>4000000</v>
+        <v>964177</v>
       </c>
       <c r="H65" t="n">
-        <v>4000000</v>
+        <v>964177</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>864261</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>864261</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>909462</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>909462</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>957027</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>957027</v>
       </c>
     </row>
     <row r="66">
@@ -3705,43 +3705,43 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
         <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>3277097</v>
+        <v>21940165</v>
       </c>
       <c r="H67" t="n">
-        <v>3277097</v>
+        <v>21940165</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>3357348</v>
+        <v>22477445</v>
       </c>
       <c r="K67" t="n">
-        <v>3357348</v>
+        <v>22477445</v>
       </c>
       <c r="L67" t="n">
-        <v>3439565</v>
+        <v>23027882</v>
       </c>
       <c r="M67" t="n">
-        <v>3439565</v>
+        <v>23027882</v>
       </c>
       <c r="N67" t="n">
-        <v>3523795</v>
+        <v>23591799</v>
       </c>
       <c r="O67" t="n">
-        <v>3523795</v>
+        <v>23591799</v>
       </c>
     </row>
     <row r="68">
@@ -3757,7 +3757,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
@@ -3766,31 +3766,31 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>4533664</v>
+        <v>17087437</v>
       </c>
       <c r="H68" t="n">
-        <v>4533664</v>
+        <v>17087437</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>4770774</v>
+        <v>15992529</v>
       </c>
       <c r="K68" t="n">
-        <v>4770774</v>
+        <v>15992529</v>
       </c>
       <c r="L68" t="n">
-        <v>5020286</v>
+        <v>16828938</v>
       </c>
       <c r="M68" t="n">
-        <v>5020286</v>
+        <v>16828938</v>
       </c>
       <c r="N68" t="n">
-        <v>5282847</v>
+        <v>17709091</v>
       </c>
       <c r="O68" t="n">
-        <v>5282847</v>
+        <v>17709091</v>
       </c>
     </row>
     <row r="69">
@@ -3803,10 +3803,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E69" t="n">
         <v>1</v>
@@ -3815,31 +3815,31 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>21940165</v>
+        <v>4000000</v>
       </c>
       <c r="H69" t="n">
-        <v>21940165</v>
+        <v>4000000</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>22477445</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>22477445</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>23027882</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>23027882</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>23591799</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>23591799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3855,7 +3855,7 @@
         <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
@@ -3864,31 +3864,31 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>10256474</v>
+        <v>9591577</v>
       </c>
       <c r="H70" t="n">
-        <v>10256474</v>
+        <v>9591577</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>9975240</v>
       </c>
       <c r="K70" t="n">
-        <v>10639514</v>
+        <v>9975240</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>10374250</v>
       </c>
       <c r="M70" t="n">
-        <v>11036877</v>
+        <v>10374250</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>10789220</v>
       </c>
       <c r="O70" t="n">
-        <v>11449070</v>
+        <v>10789220</v>
       </c>
     </row>
     <row r="71">
@@ -3901,43 +3901,43 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E71" t="n">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1618259</v>
+        <v>30000000</v>
       </c>
       <c r="H71" t="n">
-        <v>1618259</v>
+        <v>30000000</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1657888</v>
+        <v>31132850</v>
       </c>
       <c r="K71" t="n">
-        <v>1657888</v>
+        <v>31132850</v>
       </c>
       <c r="L71" t="n">
-        <v>1698488</v>
+        <v>32308712</v>
       </c>
       <c r="M71" t="n">
-        <v>1698488</v>
+        <v>32308712</v>
       </c>
       <c r="N71" t="n">
-        <v>1740082</v>
+        <v>33528985</v>
       </c>
       <c r="O71" t="n">
-        <v>1740082</v>
+        <v>33528985</v>
       </c>
     </row>
     <row r="72">
@@ -3953,7 +3953,7 @@
         <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E72" t="n">
         <v>1</v>
@@ -3962,31 +3962,31 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>9591577</v>
+        <v>3522082</v>
       </c>
       <c r="H72" t="n">
-        <v>9591577</v>
+        <v>3522082</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>9975240</v>
+        <v>3677406</v>
       </c>
       <c r="K72" t="n">
-        <v>9975240</v>
+        <v>3677406</v>
       </c>
       <c r="L72" t="n">
-        <v>10374250</v>
+        <v>3839580</v>
       </c>
       <c r="M72" t="n">
-        <v>10374250</v>
+        <v>3839580</v>
       </c>
       <c r="N72" t="n">
-        <v>10789220</v>
+        <v>4008905</v>
       </c>
       <c r="O72" t="n">
-        <v>10789220</v>
+        <v>4008905</v>
       </c>
     </row>
     <row r="73">
@@ -3999,43 +3999,43 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
         <v>10</v>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>2979943</v>
+        <v>21572634</v>
       </c>
       <c r="H73" t="n">
-        <v>2979943</v>
+        <v>21572634</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>3052918</v>
+        <v>22100914</v>
       </c>
       <c r="K73" t="n">
-        <v>3052918</v>
+        <v>22100914</v>
       </c>
       <c r="L73" t="n">
-        <v>3127680</v>
+        <v>22642131</v>
       </c>
       <c r="M73" t="n">
-        <v>3127680</v>
+        <v>22642131</v>
       </c>
       <c r="N73" t="n">
-        <v>3204272</v>
+        <v>23196601</v>
       </c>
       <c r="O73" t="n">
-        <v>3204272</v>
+        <v>23196601</v>
       </c>
     </row>
     <row r="74">
@@ -4054,37 +4054,37 @@
         <v>71</v>
       </c>
       <c r="E74" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>241849</v>
+        <v>18318498</v>
       </c>
       <c r="H74" t="n">
-        <v>241849</v>
+        <v>18318498</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>247772</v>
+        <v>19051238</v>
       </c>
       <c r="K74" t="n">
-        <v>247772</v>
+        <v>19051238</v>
       </c>
       <c r="L74" t="n">
-        <v>253840</v>
+        <v>19813288</v>
       </c>
       <c r="M74" t="n">
-        <v>253840</v>
+        <v>19813288</v>
       </c>
       <c r="N74" t="n">
-        <v>260057</v>
+        <v>20605820</v>
       </c>
       <c r="O74" t="n">
-        <v>260057</v>
+        <v>20605820</v>
       </c>
     </row>
     <row r="75">
@@ -4097,43 +4097,43 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>21572634</v>
+        <v>241849</v>
       </c>
       <c r="H75" t="n">
-        <v>21572634</v>
+        <v>241849</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>22100914</v>
+        <v>247772</v>
       </c>
       <c r="K75" t="n">
-        <v>22100914</v>
+        <v>247772</v>
       </c>
       <c r="L75" t="n">
-        <v>22642131</v>
+        <v>253840</v>
       </c>
       <c r="M75" t="n">
-        <v>22642131</v>
+        <v>253840</v>
       </c>
       <c r="N75" t="n">
-        <v>23196601</v>
+        <v>260057</v>
       </c>
       <c r="O75" t="n">
-        <v>23196601</v>
+        <v>260057</v>
       </c>
     </row>
     <row r="76">
@@ -4146,43 +4146,43 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E76" t="n">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>12495112</v>
+        <v>1618259</v>
       </c>
       <c r="H76" t="n">
-        <v>12510499</v>
+        <v>1618259</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>13046146</v>
+        <v>1657888</v>
       </c>
       <c r="K76" t="n">
-        <v>13046146</v>
+        <v>1657888</v>
       </c>
       <c r="L76" t="n">
-        <v>13621481</v>
+        <v>1698488</v>
       </c>
       <c r="M76" t="n">
-        <v>13621481</v>
+        <v>1698488</v>
       </c>
       <c r="N76" t="n">
-        <v>14222188</v>
+        <v>1740082</v>
       </c>
       <c r="O76" t="n">
-        <v>14222188</v>
+        <v>1740082</v>
       </c>
     </row>
     <row r="77">
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>10</v>
@@ -4207,31 +4207,31 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>14440</v>
+        <v>12495112</v>
       </c>
       <c r="H77" t="n">
-        <v>14440</v>
+        <v>12510499</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>14440</v>
+        <v>13046146</v>
       </c>
       <c r="K77" t="n">
-        <v>14440</v>
+        <v>13046146</v>
       </c>
       <c r="L77" t="n">
-        <v>14440</v>
+        <v>13621481</v>
       </c>
       <c r="M77" t="n">
-        <v>14440</v>
+        <v>13621481</v>
       </c>
       <c r="N77" t="n">
-        <v>14440</v>
+        <v>14222188</v>
       </c>
       <c r="O77" t="n">
-        <v>14440</v>
+        <v>14222188</v>
       </c>
     </row>
     <row r="78">
@@ -4247,7 +4247,7 @@
         <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E78" t="n">
         <v>1</v>
@@ -4256,31 +4256,31 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>30000000</v>
+        <v>14440</v>
       </c>
       <c r="H78" t="n">
-        <v>30000000</v>
+        <v>14440</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>14440</v>
       </c>
       <c r="K78" t="n">
-        <v>31132850</v>
+        <v>14440</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>14440</v>
       </c>
       <c r="M78" t="n">
-        <v>32308712</v>
+        <v>14440</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>14440</v>
       </c>
       <c r="O78" t="n">
-        <v>33528985</v>
+        <v>14440</v>
       </c>
     </row>
     <row r="79">
@@ -4296,7 +4296,7 @@
         <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="E79" t="n">
         <v>1</v>
@@ -4305,31 +4305,31 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>3522082</v>
+        <v>10256474</v>
       </c>
       <c r="H79" t="n">
-        <v>3522082</v>
+        <v>10256474</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>3677406</v>
+        <v>10639514</v>
       </c>
       <c r="K79" t="n">
-        <v>3677406</v>
+        <v>10639514</v>
       </c>
       <c r="L79" t="n">
-        <v>3839580</v>
+        <v>11036877</v>
       </c>
       <c r="M79" t="n">
-        <v>3839580</v>
+        <v>11036877</v>
       </c>
       <c r="N79" t="n">
-        <v>4008905</v>
+        <v>11449070</v>
       </c>
       <c r="O79" t="n">
-        <v>4008905</v>
+        <v>11449070</v>
       </c>
     </row>
     <row r="80">
@@ -4345,40 +4345,40 @@
         <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>18318498</v>
+        <v>2979943</v>
       </c>
       <c r="H80" t="n">
-        <v>18318498</v>
+        <v>2979943</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>19051238</v>
+        <v>3052918</v>
       </c>
       <c r="K80" t="n">
-        <v>19051238</v>
+        <v>3052918</v>
       </c>
       <c r="L80" t="n">
-        <v>19813288</v>
+        <v>3127680</v>
       </c>
       <c r="M80" t="n">
-        <v>19813288</v>
+        <v>3127680</v>
       </c>
       <c r="N80" t="n">
-        <v>20605820</v>
+        <v>3204272</v>
       </c>
       <c r="O80" t="n">
-        <v>20605820</v>
+        <v>3204272</v>
       </c>
     </row>
     <row r="81">
@@ -4394,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E81" t="n">
         <v>1</v>
@@ -4403,31 +4403,31 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>580294911</v>
+        <v>158202401</v>
       </c>
       <c r="H81" t="n">
-        <v>580294911</v>
+        <v>158202401</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>588857362</v>
+        <v>160536732</v>
       </c>
       <c r="K81" t="n">
-        <v>588857362</v>
+        <v>160536732</v>
       </c>
       <c r="L81" t="n">
-        <v>597546155</v>
+        <v>162905507</v>
       </c>
       <c r="M81" t="n">
-        <v>597546155</v>
+        <v>162905507</v>
       </c>
       <c r="N81" t="n">
-        <v>606363154</v>
+        <v>165309234</v>
       </c>
       <c r="O81" t="n">
-        <v>606363154</v>
+        <v>165309234</v>
       </c>
     </row>
     <row r="82">
@@ -4440,7 +4440,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
         <v>10</v>
@@ -4452,31 +4452,31 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>292487670</v>
+        <v>16442911143</v>
       </c>
       <c r="H82" t="n">
-        <v>292487670</v>
+        <v>16442911143</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>305386376</v>
+        <v>16685531930</v>
       </c>
       <c r="K82" t="n">
-        <v>305386376</v>
+        <v>16685531930</v>
       </c>
       <c r="L82" t="n">
-        <v>318853915</v>
+        <v>16931732670</v>
       </c>
       <c r="M82" t="n">
-        <v>318853915</v>
+        <v>16931732670</v>
       </c>
       <c r="N82" t="n">
-        <v>332915373</v>
+        <v>17181566187</v>
       </c>
       <c r="O82" t="n">
-        <v>332915373</v>
+        <v>17181566187</v>
       </c>
     </row>
     <row r="83">
@@ -4489,10 +4489,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E83" t="n">
         <v>1</v>
@@ -4501,31 +4501,31 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>158202401</v>
+        <v>6334208</v>
       </c>
       <c r="H83" t="n">
-        <v>158202401</v>
+        <v>6334208</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>160536732</v>
+        <v>6334208</v>
       </c>
       <c r="K83" t="n">
-        <v>160536732</v>
+        <v>6334208</v>
       </c>
       <c r="L83" t="n">
-        <v>162905507</v>
+        <v>6334208</v>
       </c>
       <c r="M83" t="n">
-        <v>162905507</v>
+        <v>6334208</v>
       </c>
       <c r="N83" t="n">
-        <v>165309234</v>
+        <v>6334208</v>
       </c>
       <c r="O83" t="n">
-        <v>165309234</v>
+        <v>6334208</v>
       </c>
     </row>
     <row r="84">
@@ -4587,43 +4587,43 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E85" t="n">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1050</v>
+        <v>580294911</v>
       </c>
       <c r="H85" t="n">
-        <v>1050</v>
+        <v>580294911</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1096</v>
+        <v>588857362</v>
       </c>
       <c r="K85" t="n">
-        <v>1096</v>
+        <v>588857362</v>
       </c>
       <c r="L85" t="n">
-        <v>1144</v>
+        <v>597546155</v>
       </c>
       <c r="M85" t="n">
-        <v>1144</v>
+        <v>597546155</v>
       </c>
       <c r="N85" t="n">
-        <v>1194</v>
+        <v>606363154</v>
       </c>
       <c r="O85" t="n">
-        <v>1194</v>
+        <v>606363154</v>
       </c>
     </row>
     <row r="86">
@@ -4639,40 +4639,40 @@
         <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>15000000</v>
+        <v>1102617230</v>
       </c>
       <c r="H86" t="n">
-        <v>15000000</v>
+        <v>1102617230</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>15661500</v>
+        <v>1118886725</v>
       </c>
       <c r="K86" t="n">
-        <v>15661500</v>
+        <v>1118886725</v>
       </c>
       <c r="L86" t="n">
-        <v>16352172</v>
+        <v>1135396282</v>
       </c>
       <c r="M86" t="n">
-        <v>16352172</v>
+        <v>1135396282</v>
       </c>
       <c r="N86" t="n">
-        <v>17073303</v>
+        <v>1152149444</v>
       </c>
       <c r="O86" t="n">
-        <v>17073303</v>
+        <v>1152149444</v>
       </c>
     </row>
     <row r="87">
@@ -4685,10 +4685,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="E87" t="n">
         <v>1</v>
@@ -4697,31 +4697,31 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>135219284</v>
+        <v>15000000</v>
       </c>
       <c r="H87" t="n">
-        <v>135219284</v>
+        <v>15000000</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>137214491</v>
+        <v>15661500</v>
       </c>
       <c r="K87" t="n">
-        <v>137214491</v>
+        <v>15661500</v>
       </c>
       <c r="L87" t="n">
-        <v>139239138</v>
+        <v>16352172</v>
       </c>
       <c r="M87" t="n">
-        <v>139239138</v>
+        <v>16352172</v>
       </c>
       <c r="N87" t="n">
-        <v>141293660</v>
+        <v>17073303</v>
       </c>
       <c r="O87" t="n">
-        <v>141293660</v>
+        <v>17073303</v>
       </c>
     </row>
     <row r="88">
@@ -4740,37 +4740,37 @@
         <v>10</v>
       </c>
       <c r="E88" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>1102617230</v>
+        <v>1050</v>
       </c>
       <c r="H88" t="n">
-        <v>1102617230</v>
+        <v>1050</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1118886725</v>
+        <v>1096</v>
       </c>
       <c r="K88" t="n">
-        <v>1118886725</v>
+        <v>1096</v>
       </c>
       <c r="L88" t="n">
-        <v>1135396282</v>
+        <v>1144</v>
       </c>
       <c r="M88" t="n">
-        <v>1135396282</v>
+        <v>1144</v>
       </c>
       <c r="N88" t="n">
-        <v>1152149444</v>
+        <v>1194</v>
       </c>
       <c r="O88" t="n">
-        <v>1152149444</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="89">
@@ -4783,10 +4783,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E89" t="n">
         <v>1</v>
@@ -4795,31 +4795,31 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>6334208</v>
+        <v>135219284</v>
       </c>
       <c r="H89" t="n">
-        <v>6334208</v>
+        <v>135219284</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>6334208</v>
+        <v>137214491</v>
       </c>
       <c r="K89" t="n">
-        <v>6334208</v>
+        <v>137214491</v>
       </c>
       <c r="L89" t="n">
-        <v>6334208</v>
+        <v>139239138</v>
       </c>
       <c r="M89" t="n">
-        <v>6334208</v>
+        <v>139239138</v>
       </c>
       <c r="N89" t="n">
-        <v>6334208</v>
+        <v>141293660</v>
       </c>
       <c r="O89" t="n">
-        <v>6334208</v>
+        <v>141293660</v>
       </c>
     </row>
     <row r="90">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>10</v>
@@ -4844,31 +4844,31 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>16442911143</v>
+        <v>292487670</v>
       </c>
       <c r="H90" t="n">
-        <v>16442911143</v>
+        <v>292487670</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>16685531930</v>
+        <v>305386376</v>
       </c>
       <c r="K90" t="n">
-        <v>16685531930</v>
+        <v>305386376</v>
       </c>
       <c r="L90" t="n">
-        <v>16931732670</v>
+        <v>318853915</v>
       </c>
       <c r="M90" t="n">
-        <v>16931732670</v>
+        <v>318853915</v>
       </c>
       <c r="N90" t="n">
-        <v>17181566187</v>
+        <v>332915373</v>
       </c>
       <c r="O90" t="n">
-        <v>17181566187</v>
+        <v>332915373</v>
       </c>
     </row>
     <row r="91">
@@ -6008,7 +6008,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D114" t="n">
         <v>10</v>
@@ -6017,34 +6017,34 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>26984745</v>
+        <v>57600</v>
       </c>
       <c r="H114" t="n">
-        <v>26984745</v>
+        <v>57600</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>27645559</v>
+        <v>60140</v>
       </c>
       <c r="K114" t="n">
-        <v>27645559</v>
+        <v>60140</v>
       </c>
       <c r="L114" t="n">
-        <v>28322555</v>
+        <v>62792</v>
       </c>
       <c r="M114" t="n">
-        <v>28322555</v>
+        <v>62792</v>
       </c>
       <c r="N114" t="n">
-        <v>29016130</v>
+        <v>65561</v>
       </c>
       <c r="O114" t="n">
-        <v>29016130</v>
+        <v>65561</v>
       </c>
     </row>
     <row r="115">
@@ -6057,7 +6057,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D115" t="n">
         <v>10</v>
@@ -6066,34 +6066,34 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>57600</v>
+        <v>26984745</v>
       </c>
       <c r="H115" t="n">
-        <v>57600</v>
+        <v>26984745</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>60140</v>
+        <v>27645559</v>
       </c>
       <c r="K115" t="n">
-        <v>60140</v>
+        <v>27645559</v>
       </c>
       <c r="L115" t="n">
-        <v>62792</v>
+        <v>28322555</v>
       </c>
       <c r="M115" t="n">
-        <v>62792</v>
+        <v>28322555</v>
       </c>
       <c r="N115" t="n">
-        <v>65561</v>
+        <v>29016130</v>
       </c>
       <c r="O115" t="n">
-        <v>65561</v>
+        <v>29016130</v>
       </c>
     </row>
     <row r="116">
@@ -6988,7 +6988,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D134" t="n">
         <v>27</v>
@@ -6997,34 +6997,34 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>7703604</v>
+        <v>2160000</v>
       </c>
       <c r="H134" t="n">
-        <v>7703604</v>
+        <v>2160000</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>8043333</v>
+        <v>2160000</v>
       </c>
       <c r="K134" t="n">
-        <v>8043333</v>
+        <v>2160000</v>
       </c>
       <c r="L134" t="n">
-        <v>8398044</v>
+        <v>2160000</v>
       </c>
       <c r="M134" t="n">
-        <v>8398044</v>
+        <v>2160000</v>
       </c>
       <c r="N134" t="n">
-        <v>8768398</v>
+        <v>2160000</v>
       </c>
       <c r="O134" t="n">
-        <v>8768398</v>
+        <v>2160000</v>
       </c>
     </row>
     <row r="135">
@@ -7040,7 +7040,7 @@
         <v>4</v>
       </c>
       <c r="D135" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E135" t="n">
         <v>1</v>
@@ -7049,31 +7049,31 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>4661665</v>
+        <v>1438645</v>
       </c>
       <c r="H135" t="n">
-        <v>4661665</v>
+        <v>1438645</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
+        <v>1438645</v>
       </c>
       <c r="K135" t="n">
-        <v>0</v>
+        <v>1438645</v>
       </c>
       <c r="L135" t="n">
-        <v>0</v>
+        <v>1438645</v>
       </c>
       <c r="M135" t="n">
-        <v>0</v>
+        <v>1438645</v>
       </c>
       <c r="N135" t="n">
-        <v>0</v>
+        <v>1438645</v>
       </c>
       <c r="O135" t="n">
-        <v>0</v>
+        <v>1438645</v>
       </c>
     </row>
     <row r="136">
@@ -7086,43 +7086,43 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D136" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E136" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>166220048</v>
+        <v>4661665</v>
       </c>
       <c r="H136" t="n">
-        <v>166220048</v>
+        <v>4661665</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>168672682</v>
+        <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>168672682</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
-        <v>171161506</v>
+        <v>0</v>
       </c>
       <c r="M136" t="n">
-        <v>171161506</v>
+        <v>0</v>
       </c>
       <c r="N136" t="n">
-        <v>173687053</v>
+        <v>0</v>
       </c>
       <c r="O136" t="n">
-        <v>173687053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -7138,40 +7138,40 @@
         <v>3</v>
       </c>
       <c r="D137" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E137" t="n">
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>1129277</v>
+        <v>2094122</v>
       </c>
       <c r="H137" t="n">
-        <v>1129277</v>
+        <v>2094122</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>1179078</v>
+        <v>2186473</v>
       </c>
       <c r="K137" t="n">
-        <v>1179078</v>
+        <v>2186473</v>
       </c>
       <c r="L137" t="n">
-        <v>1231075</v>
+        <v>2282896</v>
       </c>
       <c r="M137" t="n">
-        <v>1231075</v>
+        <v>2282896</v>
       </c>
       <c r="N137" t="n">
-        <v>1285365</v>
+        <v>2383572</v>
       </c>
       <c r="O137" t="n">
-        <v>1285365</v>
+        <v>2383572</v>
       </c>
     </row>
     <row r="138">
@@ -7187,40 +7187,40 @@
         <v>3</v>
       </c>
       <c r="D138" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E138" t="n">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>2094122</v>
+        <v>1129277</v>
       </c>
       <c r="H138" t="n">
-        <v>2094122</v>
+        <v>1129277</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>2186473</v>
+        <v>1179078</v>
       </c>
       <c r="K138" t="n">
-        <v>2186473</v>
+        <v>1179078</v>
       </c>
       <c r="L138" t="n">
-        <v>2282896</v>
+        <v>1231075</v>
       </c>
       <c r="M138" t="n">
-        <v>2282896</v>
+        <v>1231075</v>
       </c>
       <c r="N138" t="n">
-        <v>2383572</v>
+        <v>1285365</v>
       </c>
       <c r="O138" t="n">
-        <v>2383572</v>
+        <v>1285365</v>
       </c>
     </row>
     <row r="139">
@@ -7233,43 +7233,43 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D139" t="n">
         <v>10</v>
       </c>
       <c r="E139" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>1970332594</v>
+        <v>166220048</v>
       </c>
       <c r="H139" t="n">
-        <v>1970332594</v>
+        <v>166220048</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>1999405527</v>
+        <v>168672682</v>
       </c>
       <c r="K139" t="n">
-        <v>1999405527</v>
+        <v>168672682</v>
       </c>
       <c r="L139" t="n">
-        <v>2028907441</v>
+        <v>171161506</v>
       </c>
       <c r="M139" t="n">
-        <v>2028907441</v>
+        <v>171161506</v>
       </c>
       <c r="N139" t="n">
-        <v>2058844666</v>
+        <v>173687053</v>
       </c>
       <c r="O139" t="n">
-        <v>2058844666</v>
+        <v>173687053</v>
       </c>
     </row>
     <row r="140">
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
         <v>10</v>
@@ -7294,31 +7294,31 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>1438645</v>
+        <v>1970332594</v>
       </c>
       <c r="H140" t="n">
-        <v>1438645</v>
+        <v>1970332594</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>1438645</v>
+        <v>1999405527</v>
       </c>
       <c r="K140" t="n">
-        <v>1438645</v>
+        <v>1999405527</v>
       </c>
       <c r="L140" t="n">
-        <v>1438645</v>
+        <v>2028907441</v>
       </c>
       <c r="M140" t="n">
-        <v>1438645</v>
+        <v>2028907441</v>
       </c>
       <c r="N140" t="n">
-        <v>1438645</v>
+        <v>2058844666</v>
       </c>
       <c r="O140" t="n">
-        <v>1438645</v>
+        <v>2058844666</v>
       </c>
     </row>
     <row r="141">
@@ -7380,7 +7380,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D142" t="n">
         <v>27</v>
@@ -7389,34 +7389,34 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>2160000</v>
+        <v>7703604</v>
       </c>
       <c r="H142" t="n">
-        <v>2160000</v>
+        <v>7703604</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>2160000</v>
+        <v>8043333</v>
       </c>
       <c r="K142" t="n">
-        <v>2160000</v>
+        <v>8043333</v>
       </c>
       <c r="L142" t="n">
-        <v>2160000</v>
+        <v>8398044</v>
       </c>
       <c r="M142" t="n">
-        <v>2160000</v>
+        <v>8398044</v>
       </c>
       <c r="N142" t="n">
-        <v>2160000</v>
+        <v>8768398</v>
       </c>
       <c r="O142" t="n">
-        <v>2160000</v>
+        <v>8768398</v>
       </c>
     </row>
     <row r="143">
@@ -7429,7 +7429,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D143" t="n">
         <v>10</v>
@@ -7441,31 +7441,31 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>5000000</v>
+        <v>156504884</v>
       </c>
       <c r="H143" t="n">
-        <v>5000000</v>
+        <v>156504884</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>5000000</v>
+        <v>162766159</v>
       </c>
       <c r="K143" t="n">
-        <v>5000000</v>
+        <v>162766159</v>
       </c>
       <c r="L143" t="n">
-        <v>5000000</v>
+        <v>169277933</v>
       </c>
       <c r="M143" t="n">
-        <v>5000000</v>
+        <v>169277933</v>
       </c>
       <c r="N143" t="n">
-        <v>5000000</v>
+        <v>176050238</v>
       </c>
       <c r="O143" t="n">
-        <v>5000000</v>
+        <v>176050238</v>
       </c>
     </row>
     <row r="144">
@@ -7478,43 +7478,43 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
         <v>10</v>
       </c>
       <c r="E144" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>75903360</v>
+        <v>791270300</v>
       </c>
       <c r="H144" t="n">
-        <v>75903360</v>
+        <v>791270300</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>79167204</v>
+        <v>825294923</v>
       </c>
       <c r="K144" t="n">
-        <v>79167204</v>
+        <v>825294923</v>
       </c>
       <c r="L144" t="n">
-        <v>82571395</v>
+        <v>860782605</v>
       </c>
       <c r="M144" t="n">
-        <v>82571395</v>
+        <v>860782605</v>
       </c>
       <c r="N144" t="n">
-        <v>86121965</v>
+        <v>897796256</v>
       </c>
       <c r="O144" t="n">
-        <v>86121965</v>
+        <v>897796256</v>
       </c>
     </row>
     <row r="145">
@@ -7527,43 +7527,43 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D145" t="n">
         <v>10</v>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>156504884</v>
+        <v>1000</v>
       </c>
       <c r="H145" t="n">
-        <v>156504884</v>
+        <v>1000</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>162766159</v>
+        <v>1000</v>
       </c>
       <c r="K145" t="n">
-        <v>162766159</v>
+        <v>1000</v>
       </c>
       <c r="L145" t="n">
-        <v>169277933</v>
+        <v>1000</v>
       </c>
       <c r="M145" t="n">
-        <v>169277933</v>
+        <v>1000</v>
       </c>
       <c r="N145" t="n">
-        <v>176050238</v>
+        <v>1000</v>
       </c>
       <c r="O145" t="n">
-        <v>176050238</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="146">
@@ -7625,43 +7625,43 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D147" t="n">
         <v>10</v>
       </c>
       <c r="E147" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>1000</v>
+        <v>75903360</v>
       </c>
       <c r="H147" t="n">
-        <v>1000</v>
+        <v>75903360</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>1000</v>
+        <v>79167204</v>
       </c>
       <c r="K147" t="n">
-        <v>1000</v>
+        <v>79167204</v>
       </c>
       <c r="L147" t="n">
-        <v>1000</v>
+        <v>82571395</v>
       </c>
       <c r="M147" t="n">
-        <v>1000</v>
+        <v>82571395</v>
       </c>
       <c r="N147" t="n">
-        <v>1000</v>
+        <v>86121965</v>
       </c>
       <c r="O147" t="n">
-        <v>1000</v>
+        <v>86121965</v>
       </c>
     </row>
     <row r="148">
@@ -7674,7 +7674,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D148" t="n">
         <v>10</v>
@@ -7686,31 +7686,31 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>791270300</v>
+        <v>5000000</v>
       </c>
       <c r="H148" t="n">
-        <v>791270300</v>
+        <v>5000000</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>825294923</v>
+        <v>5000000</v>
       </c>
       <c r="K148" t="n">
-        <v>825294923</v>
+        <v>5000000</v>
       </c>
       <c r="L148" t="n">
-        <v>860782605</v>
+        <v>5000000</v>
       </c>
       <c r="M148" t="n">
-        <v>860782605</v>
+        <v>5000000</v>
       </c>
       <c r="N148" t="n">
-        <v>897796256</v>
+        <v>5000000</v>
       </c>
       <c r="O148" t="n">
-        <v>897796256</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="149">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E149" t="n">
         <v>1</v>
@@ -7735,31 +7735,31 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>6718229</v>
+        <v>1082032369</v>
       </c>
       <c r="H149" t="n">
-        <v>6718229</v>
+        <v>1082032369</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>24730741</v>
+        <v>1118342448</v>
       </c>
       <c r="K149" t="n">
-        <v>24730741</v>
+        <v>1118342448</v>
       </c>
       <c r="L149" t="n">
-        <v>24730741</v>
+        <v>1134893916</v>
       </c>
       <c r="M149" t="n">
-        <v>24730741</v>
+        <v>1134893916</v>
       </c>
       <c r="N149" t="n">
-        <v>24730741</v>
+        <v>1151690346</v>
       </c>
       <c r="O149" t="n">
-        <v>24730741</v>
+        <v>1151690346</v>
       </c>
     </row>
     <row r="150">
@@ -7772,43 +7772,43 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D150" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>1138967</v>
+        <v>8027237</v>
       </c>
       <c r="H150" t="n">
-        <v>1138967</v>
+        <v>8027237</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>1155773</v>
+        <v>8381238</v>
       </c>
       <c r="K150" t="n">
-        <v>1155773</v>
+        <v>8381238</v>
       </c>
       <c r="L150" t="n">
-        <v>1172827</v>
+        <v>8750851</v>
       </c>
       <c r="M150" t="n">
-        <v>1172827</v>
+        <v>8750851</v>
       </c>
       <c r="N150" t="n">
-        <v>1190133</v>
+        <v>9136764</v>
       </c>
       <c r="O150" t="n">
-        <v>1190133</v>
+        <v>9136764</v>
       </c>
     </row>
     <row r="151">
@@ -7821,10 +7821,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E151" t="n">
         <v>1</v>
@@ -7833,31 +7833,31 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>61000</v>
+        <v>1926000297</v>
       </c>
       <c r="H151" t="n">
-        <v>61000</v>
+        <v>1926000297</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>63690</v>
+        <v>1934209101</v>
       </c>
       <c r="K151" t="n">
-        <v>63690</v>
+        <v>1934209101</v>
       </c>
       <c r="L151" t="n">
-        <v>66499</v>
+        <v>1962835396</v>
       </c>
       <c r="M151" t="n">
-        <v>66499</v>
+        <v>1962835396</v>
       </c>
       <c r="N151" t="n">
-        <v>69432</v>
+        <v>1991885360</v>
       </c>
       <c r="O151" t="n">
-        <v>69432</v>
+        <v>1991885360</v>
       </c>
     </row>
     <row r="152">
@@ -7870,43 +7870,43 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D152" t="n">
         <v>27</v>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>1082032369</v>
+        <v>30183513</v>
       </c>
       <c r="H152" t="n">
-        <v>1082032369</v>
+        <v>30183513</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>1118342448</v>
+        <v>30628882</v>
       </c>
       <c r="K152" t="n">
-        <v>1118342448</v>
+        <v>30628882</v>
       </c>
       <c r="L152" t="n">
-        <v>1134893916</v>
+        <v>31080822</v>
       </c>
       <c r="M152" t="n">
-        <v>1134893916</v>
+        <v>31080822</v>
       </c>
       <c r="N152" t="n">
-        <v>1151690346</v>
+        <v>31539431</v>
       </c>
       <c r="O152" t="n">
-        <v>1151690346</v>
+        <v>31539431</v>
       </c>
     </row>
     <row r="153">
@@ -7919,43 +7919,43 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D153" t="n">
         <v>10</v>
       </c>
       <c r="E153" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>4868789</v>
+        <v>526114795</v>
       </c>
       <c r="H153" t="n">
-        <v>4868789</v>
+        <v>526114795</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>4868789</v>
+        <v>533877800</v>
       </c>
       <c r="K153" t="n">
-        <v>4868789</v>
+        <v>533877800</v>
       </c>
       <c r="L153" t="n">
-        <v>4868789</v>
+        <v>541755350</v>
       </c>
       <c r="M153" t="n">
-        <v>4868789</v>
+        <v>541755350</v>
       </c>
       <c r="N153" t="n">
-        <v>4868789</v>
+        <v>549749136</v>
       </c>
       <c r="O153" t="n">
-        <v>4868789</v>
+        <v>549749136</v>
       </c>
     </row>
     <row r="154">
@@ -8017,10 +8017,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D155" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E155" t="n">
         <v>1</v>
@@ -8029,31 +8029,31 @@
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>1926000297</v>
+        <v>61000</v>
       </c>
       <c r="H155" t="n">
-        <v>1926000297</v>
+        <v>61000</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>1934209101</v>
+        <v>63690</v>
       </c>
       <c r="K155" t="n">
-        <v>1934209101</v>
+        <v>63690</v>
       </c>
       <c r="L155" t="n">
-        <v>1962835396</v>
+        <v>66499</v>
       </c>
       <c r="M155" t="n">
-        <v>1962835396</v>
+        <v>66499</v>
       </c>
       <c r="N155" t="n">
-        <v>1991885360</v>
+        <v>69432</v>
       </c>
       <c r="O155" t="n">
-        <v>1991885360</v>
+        <v>69432</v>
       </c>
     </row>
     <row r="156">
@@ -8066,43 +8066,43 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D156" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E156" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>30183513</v>
+        <v>6718229</v>
       </c>
       <c r="H156" t="n">
-        <v>30183513</v>
+        <v>6718229</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>30628882</v>
+        <v>24730741</v>
       </c>
       <c r="K156" t="n">
-        <v>30628882</v>
+        <v>24730741</v>
       </c>
       <c r="L156" t="n">
-        <v>31080822</v>
+        <v>24730741</v>
       </c>
       <c r="M156" t="n">
-        <v>31080822</v>
+        <v>24730741</v>
       </c>
       <c r="N156" t="n">
-        <v>31539431</v>
+        <v>24730741</v>
       </c>
       <c r="O156" t="n">
-        <v>31539431</v>
+        <v>24730741</v>
       </c>
     </row>
     <row r="157">
@@ -8164,43 +8164,43 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D158" t="n">
         <v>10</v>
       </c>
       <c r="E158" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>526114795</v>
+        <v>4868789</v>
       </c>
       <c r="H158" t="n">
-        <v>526114795</v>
+        <v>4868789</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>533877800</v>
+        <v>4868789</v>
       </c>
       <c r="K158" t="n">
-        <v>533877800</v>
+        <v>4868789</v>
       </c>
       <c r="L158" t="n">
-        <v>541755350</v>
+        <v>4868789</v>
       </c>
       <c r="M158" t="n">
-        <v>541755350</v>
+        <v>4868789</v>
       </c>
       <c r="N158" t="n">
-        <v>549749136</v>
+        <v>4868789</v>
       </c>
       <c r="O158" t="n">
-        <v>549749136</v>
+        <v>4868789</v>
       </c>
     </row>
     <row r="159">
@@ -8213,43 +8213,43 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>8027237</v>
+        <v>1138967</v>
       </c>
       <c r="H159" t="n">
-        <v>8027237</v>
+        <v>1138967</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>8381238</v>
+        <v>1155773</v>
       </c>
       <c r="K159" t="n">
-        <v>8381238</v>
+        <v>1155773</v>
       </c>
       <c r="L159" t="n">
-        <v>8750851</v>
+        <v>1172827</v>
       </c>
       <c r="M159" t="n">
-        <v>8750851</v>
+        <v>1172827</v>
       </c>
       <c r="N159" t="n">
-        <v>9136764</v>
+        <v>1190133</v>
       </c>
       <c r="O159" t="n">
-        <v>9136764</v>
+        <v>1190133</v>
       </c>
     </row>
     <row r="160">
@@ -8262,7 +8262,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D160" t="n">
         <v>71</v>
@@ -8271,34 +8271,34 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G160" t="n">
-        <v>700000</v>
+        <v>60242357</v>
       </c>
       <c r="H160" t="n">
-        <v>700000</v>
+        <v>60242357</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>700000</v>
+        <v>62652051</v>
       </c>
       <c r="K160" t="n">
-        <v>700000</v>
+        <v>62652051</v>
       </c>
       <c r="L160" t="n">
-        <v>700000</v>
+        <v>65158133</v>
       </c>
       <c r="M160" t="n">
-        <v>700000</v>
+        <v>65158133</v>
       </c>
       <c r="N160" t="n">
-        <v>700000</v>
+        <v>67764458</v>
       </c>
       <c r="O160" t="n">
-        <v>700000</v>
+        <v>67764458</v>
       </c>
     </row>
     <row r="161">
@@ -8314,7 +8314,7 @@
         <v>3</v>
       </c>
       <c r="D161" t="n">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="E161" t="n">
         <v>1</v>
@@ -8323,31 +8323,31 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>33303341</v>
+        <v>1739777</v>
       </c>
       <c r="H161" t="n">
-        <v>33303341</v>
+        <v>1739777</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>34635475</v>
+        <v>1830767</v>
       </c>
       <c r="K161" t="n">
-        <v>34635475</v>
+        <v>1830767</v>
       </c>
       <c r="L161" t="n">
-        <v>36020894</v>
+        <v>1926516</v>
       </c>
       <c r="M161" t="n">
-        <v>36020894</v>
+        <v>1926516</v>
       </c>
       <c r="N161" t="n">
-        <v>37461730</v>
+        <v>2027273</v>
       </c>
       <c r="O161" t="n">
-        <v>37461730</v>
+        <v>2027273</v>
       </c>
     </row>
     <row r="162">
@@ -8360,43 +8360,43 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D162" t="n">
         <v>71</v>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>1447525</v>
+        <v>2502464</v>
       </c>
       <c r="H162" t="n">
-        <v>1447525</v>
+        <v>2502464</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>1482973</v>
+        <v>2563746</v>
       </c>
       <c r="K162" t="n">
-        <v>1482973</v>
+        <v>2563746</v>
       </c>
       <c r="L162" t="n">
-        <v>1519289</v>
+        <v>2626529</v>
       </c>
       <c r="M162" t="n">
-        <v>1519289</v>
+        <v>2626529</v>
       </c>
       <c r="N162" t="n">
-        <v>1556494</v>
+        <v>2690849</v>
       </c>
       <c r="O162" t="n">
-        <v>1556494</v>
+        <v>2690849</v>
       </c>
     </row>
     <row r="163">
@@ -8412,7 +8412,7 @@
         <v>3</v>
       </c>
       <c r="D163" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E163" t="n">
         <v>1</v>
@@ -8421,31 +8421,31 @@
         <v>1</v>
       </c>
       <c r="G163" t="n">
-        <v>60242357</v>
+        <v>3149019</v>
       </c>
       <c r="H163" t="n">
-        <v>60242357</v>
+        <v>3149019</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>62652051</v>
+        <v>0</v>
       </c>
       <c r="K163" t="n">
-        <v>62652051</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
-        <v>65158133</v>
+        <v>0</v>
       </c>
       <c r="M163" t="n">
-        <v>65158133</v>
+        <v>0</v>
       </c>
       <c r="N163" t="n">
-        <v>67764458</v>
+        <v>0</v>
       </c>
       <c r="O163" t="n">
-        <v>67764458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -8458,7 +8458,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D164" t="n">
         <v>10</v>
@@ -8470,31 +8470,31 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>1739777</v>
+        <v>80000</v>
       </c>
       <c r="H164" t="n">
-        <v>1739777</v>
+        <v>80000</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>1830767</v>
+        <v>80000</v>
       </c>
       <c r="K164" t="n">
-        <v>1830767</v>
+        <v>80000</v>
       </c>
       <c r="L164" t="n">
-        <v>1926516</v>
+        <v>80000</v>
       </c>
       <c r="M164" t="n">
-        <v>1926516</v>
+        <v>80000</v>
       </c>
       <c r="N164" t="n">
-        <v>2027273</v>
+        <v>80000</v>
       </c>
       <c r="O164" t="n">
-        <v>2027273</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="165">
@@ -8510,40 +8510,40 @@
         <v>3</v>
       </c>
       <c r="D165" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E165" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>2502464</v>
+        <v>7098500</v>
       </c>
       <c r="H165" t="n">
-        <v>2502464</v>
+        <v>7098500</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>2563746</v>
+        <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>2563746</v>
+        <v>0</v>
       </c>
       <c r="L165" t="n">
-        <v>2626529</v>
+        <v>0</v>
       </c>
       <c r="M165" t="n">
-        <v>2626529</v>
+        <v>0</v>
       </c>
       <c r="N165" t="n">
-        <v>2690849</v>
+        <v>0</v>
       </c>
       <c r="O165" t="n">
-        <v>2690849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -8556,43 +8556,43 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E166" t="n">
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>3149019</v>
+        <v>50717328</v>
       </c>
       <c r="H166" t="n">
-        <v>3149019</v>
+        <v>50717328</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>0</v>
+        <v>51959315</v>
       </c>
       <c r="K166" t="n">
-        <v>0</v>
+        <v>51959315</v>
       </c>
       <c r="L166" t="n">
-        <v>0</v>
+        <v>53231716</v>
       </c>
       <c r="M166" t="n">
-        <v>0</v>
+        <v>53231716</v>
       </c>
       <c r="N166" t="n">
-        <v>0</v>
+        <v>54535276</v>
       </c>
       <c r="O166" t="n">
-        <v>0</v>
+        <v>54535276</v>
       </c>
     </row>
     <row r="167">
@@ -8605,43 +8605,43 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D167" t="n">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>80000</v>
+        <v>173705</v>
       </c>
       <c r="H167" t="n">
-        <v>80000</v>
+        <v>173705</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>80000</v>
+        <v>177959</v>
       </c>
       <c r="K167" t="n">
-        <v>80000</v>
+        <v>177959</v>
       </c>
       <c r="L167" t="n">
-        <v>80000</v>
+        <v>182317</v>
       </c>
       <c r="M167" t="n">
-        <v>80000</v>
+        <v>182317</v>
       </c>
       <c r="N167" t="n">
-        <v>80000</v>
+        <v>186782</v>
       </c>
       <c r="O167" t="n">
-        <v>80000</v>
+        <v>186782</v>
       </c>
     </row>
     <row r="168">
@@ -8654,10 +8654,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E168" t="n">
         <v>1</v>
@@ -8666,31 +8666,31 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>7098500</v>
+        <v>16208121</v>
       </c>
       <c r="H168" t="n">
-        <v>7098500</v>
+        <v>16208121</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>0</v>
+        <v>16605032</v>
       </c>
       <c r="K168" t="n">
-        <v>0</v>
+        <v>16605032</v>
       </c>
       <c r="L168" t="n">
-        <v>0</v>
+        <v>17011663</v>
       </c>
       <c r="M168" t="n">
-        <v>0</v>
+        <v>17011663</v>
       </c>
       <c r="N168" t="n">
-        <v>0</v>
+        <v>17428252</v>
       </c>
       <c r="O168" t="n">
-        <v>0</v>
+        <v>17428252</v>
       </c>
     </row>
     <row r="169">
@@ -8703,43 +8703,43 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D169" t="n">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E169" t="n">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G169" t="n">
-        <v>50717328</v>
+        <v>9000000</v>
       </c>
       <c r="H169" t="n">
-        <v>50717328</v>
+        <v>9000000</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>51959315</v>
+        <v>9000000</v>
       </c>
       <c r="K169" t="n">
-        <v>51959315</v>
+        <v>9000000</v>
       </c>
       <c r="L169" t="n">
-        <v>53231716</v>
+        <v>9000000</v>
       </c>
       <c r="M169" t="n">
-        <v>53231716</v>
+        <v>9000000</v>
       </c>
       <c r="N169" t="n">
-        <v>54535276</v>
+        <v>9000000</v>
       </c>
       <c r="O169" t="n">
-        <v>54535276</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="170">
@@ -8755,40 +8755,40 @@
         <v>3</v>
       </c>
       <c r="D170" t="n">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="E170" t="n">
         <v>7</v>
       </c>
       <c r="F170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>173705</v>
+        <v>8863991</v>
       </c>
       <c r="H170" t="n">
-        <v>173705</v>
+        <v>8863991</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>177959</v>
+        <v>9081056</v>
       </c>
       <c r="K170" t="n">
-        <v>177959</v>
+        <v>9081056</v>
       </c>
       <c r="L170" t="n">
-        <v>182317</v>
+        <v>9303437</v>
       </c>
       <c r="M170" t="n">
-        <v>182317</v>
+        <v>9303437</v>
       </c>
       <c r="N170" t="n">
-        <v>186782</v>
+        <v>9531264</v>
       </c>
       <c r="O170" t="n">
-        <v>186782</v>
+        <v>9531264</v>
       </c>
     </row>
     <row r="171">
@@ -8801,7 +8801,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D171" t="n">
         <v>71</v>
@@ -8813,31 +8813,31 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>16208121</v>
+        <v>700000</v>
       </c>
       <c r="H171" t="n">
-        <v>16208121</v>
+        <v>700000</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>16605032</v>
+        <v>700000</v>
       </c>
       <c r="K171" t="n">
-        <v>16605032</v>
+        <v>700000</v>
       </c>
       <c r="L171" t="n">
-        <v>17011663</v>
+        <v>700000</v>
       </c>
       <c r="M171" t="n">
-        <v>17011663</v>
+        <v>700000</v>
       </c>
       <c r="N171" t="n">
-        <v>17428252</v>
+        <v>700000</v>
       </c>
       <c r="O171" t="n">
-        <v>17428252</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="172">
@@ -8850,7 +8850,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D172" t="n">
         <v>71</v>
@@ -8859,34 +8859,34 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>9000000</v>
+        <v>33303341</v>
       </c>
       <c r="H172" t="n">
-        <v>9000000</v>
+        <v>33303341</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>9000000</v>
+        <v>34635475</v>
       </c>
       <c r="K172" t="n">
-        <v>9000000</v>
+        <v>34635475</v>
       </c>
       <c r="L172" t="n">
-        <v>9000000</v>
+        <v>36020894</v>
       </c>
       <c r="M172" t="n">
-        <v>9000000</v>
+        <v>36020894</v>
       </c>
       <c r="N172" t="n">
-        <v>9000000</v>
+        <v>37461730</v>
       </c>
       <c r="O172" t="n">
-        <v>9000000</v>
+        <v>37461730</v>
       </c>
     </row>
     <row r="173">
@@ -8899,43 +8899,43 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D173" t="n">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E173" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173" t="n">
-        <v>8863991</v>
+        <v>1447525</v>
       </c>
       <c r="H173" t="n">
-        <v>8863991</v>
+        <v>1447525</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>9081056</v>
+        <v>1482973</v>
       </c>
       <c r="K173" t="n">
-        <v>9081056</v>
+        <v>1482973</v>
       </c>
       <c r="L173" t="n">
-        <v>9303437</v>
+        <v>1519289</v>
       </c>
       <c r="M173" t="n">
-        <v>9303437</v>
+        <v>1519289</v>
       </c>
       <c r="N173" t="n">
-        <v>9531264</v>
+        <v>1556494</v>
       </c>
       <c r="O173" t="n">
-        <v>9531264</v>
+        <v>1556494</v>
       </c>
     </row>
     <row r="174">
@@ -8997,43 +8997,43 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D175" t="n">
         <v>10</v>
       </c>
       <c r="E175" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>5041792</v>
+        <v>48354448</v>
       </c>
       <c r="H175" t="n">
-        <v>5041792</v>
+        <v>48354448</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>5165258</v>
+        <v>49538572</v>
       </c>
       <c r="K175" t="n">
-        <v>5165258</v>
+        <v>49538572</v>
       </c>
       <c r="L175" t="n">
-        <v>5291747</v>
+        <v>50751693</v>
       </c>
       <c r="M175" t="n">
-        <v>5291747</v>
+        <v>50751693</v>
       </c>
       <c r="N175" t="n">
-        <v>5421334</v>
+        <v>51994521</v>
       </c>
       <c r="O175" t="n">
-        <v>5421334</v>
+        <v>51994521</v>
       </c>
     </row>
     <row r="176">
@@ -9052,37 +9052,37 @@
         <v>10</v>
       </c>
       <c r="E176" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>1439078135</v>
+        <v>5041792</v>
       </c>
       <c r="H176" t="n">
-        <v>1439078135</v>
+        <v>5041792</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>1497837526</v>
+        <v>5165258</v>
       </c>
       <c r="K176" t="n">
-        <v>1497837526</v>
+        <v>5165258</v>
       </c>
       <c r="L176" t="n">
-        <v>1557751027</v>
+        <v>5291747</v>
       </c>
       <c r="M176" t="n">
-        <v>1557751027</v>
+        <v>5291747</v>
       </c>
       <c r="N176" t="n">
-        <v>1620061068</v>
+        <v>5421334</v>
       </c>
       <c r="O176" t="n">
-        <v>1620061068</v>
+        <v>5421334</v>
       </c>
     </row>
     <row r="177">
@@ -9104,34 +9104,34 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>1000</v>
+        <v>1439078135</v>
       </c>
       <c r="H177" t="n">
-        <v>1000</v>
+        <v>1439078135</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>1000</v>
+        <v>1497837526</v>
       </c>
       <c r="K177" t="n">
-        <v>1000</v>
+        <v>1497837526</v>
       </c>
       <c r="L177" t="n">
-        <v>1000</v>
+        <v>1557751027</v>
       </c>
       <c r="M177" t="n">
-        <v>1000</v>
+        <v>1557751027</v>
       </c>
       <c r="N177" t="n">
-        <v>1000</v>
+        <v>1620061068</v>
       </c>
       <c r="O177" t="n">
-        <v>1000</v>
+        <v>1620061068</v>
       </c>
     </row>
     <row r="178">
@@ -9144,7 +9144,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D178" t="n">
         <v>10</v>
@@ -9153,34 +9153,34 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G178" t="n">
-        <v>48354448</v>
+        <v>1000</v>
       </c>
       <c r="H178" t="n">
-        <v>48354448</v>
+        <v>1000</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>49538572</v>
+        <v>1000</v>
       </c>
       <c r="K178" t="n">
-        <v>49538572</v>
+        <v>1000</v>
       </c>
       <c r="L178" t="n">
-        <v>50751693</v>
+        <v>1000</v>
       </c>
       <c r="M178" t="n">
-        <v>50751693</v>
+        <v>1000</v>
       </c>
       <c r="N178" t="n">
-        <v>51994521</v>
+        <v>1000</v>
       </c>
       <c r="O178" t="n">
-        <v>51994521</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="179">
@@ -9196,7 +9196,7 @@
         <v>4</v>
       </c>
       <c r="D179" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E179" t="n">
         <v>1</v>
@@ -9205,31 +9205,31 @@
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>42997668</v>
+        <v>5109300</v>
       </c>
       <c r="H179" t="n">
-        <v>42997668</v>
+        <v>5109300</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>42997668</v>
+        <v>0</v>
       </c>
       <c r="K179" t="n">
-        <v>42997668</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
-        <v>42997668</v>
+        <v>0</v>
       </c>
       <c r="M179" t="n">
-        <v>42997668</v>
+        <v>0</v>
       </c>
       <c r="N179" t="n">
-        <v>42997668</v>
+        <v>0</v>
       </c>
       <c r="O179" t="n">
-        <v>42997668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -9242,10 +9242,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D180" t="n">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="E180" t="n">
         <v>1</v>
@@ -9254,31 +9254,31 @@
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>6502284</v>
+        <v>213137271</v>
       </c>
       <c r="H180" t="n">
-        <v>6502284</v>
+        <v>213137271</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>6502284</v>
+        <v>221662762</v>
       </c>
       <c r="K180" t="n">
-        <v>6502284</v>
+        <v>221662762</v>
       </c>
       <c r="L180" t="n">
-        <v>6502284</v>
+        <v>230529272</v>
       </c>
       <c r="M180" t="n">
-        <v>6502284</v>
+        <v>230529272</v>
       </c>
       <c r="N180" t="n">
-        <v>6502284</v>
+        <v>239750443</v>
       </c>
       <c r="O180" t="n">
-        <v>6502284</v>
+        <v>239750443</v>
       </c>
     </row>
     <row r="181">
@@ -9343,7 +9343,7 @@
         <v>3</v>
       </c>
       <c r="D182" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E182" t="n">
         <v>1</v>
@@ -9352,31 +9352,31 @@
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>114990309</v>
+        <v>4455599</v>
       </c>
       <c r="H182" t="n">
-        <v>114990309</v>
+        <v>4455599</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>119589921</v>
+        <v>4652091</v>
       </c>
       <c r="K182" t="n">
-        <v>119589921</v>
+        <v>4652091</v>
       </c>
       <c r="L182" t="n">
-        <v>124373518</v>
+        <v>4857248</v>
       </c>
       <c r="M182" t="n">
-        <v>124373518</v>
+        <v>4857248</v>
       </c>
       <c r="N182" t="n">
-        <v>129348459</v>
+        <v>5071453</v>
       </c>
       <c r="O182" t="n">
-        <v>129348459</v>
+        <v>5071453</v>
       </c>
     </row>
     <row r="183">
@@ -9389,10 +9389,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D183" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E183" t="n">
         <v>1</v>
@@ -9401,31 +9401,31 @@
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>465500</v>
+        <v>301739317</v>
       </c>
       <c r="H183" t="n">
-        <v>465500</v>
+        <v>301739317</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>0</v>
+        <v>313808890</v>
       </c>
       <c r="K183" t="n">
-        <v>0</v>
+        <v>313808890</v>
       </c>
       <c r="L183" t="n">
-        <v>0</v>
+        <v>326361245</v>
       </c>
       <c r="M183" t="n">
-        <v>0</v>
+        <v>326361245</v>
       </c>
       <c r="N183" t="n">
-        <v>0</v>
+        <v>339415695</v>
       </c>
       <c r="O183" t="n">
-        <v>0</v>
+        <v>339415695</v>
       </c>
     </row>
     <row r="184">
@@ -9441,40 +9441,40 @@
         <v>3</v>
       </c>
       <c r="D184" t="n">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E184" t="n">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>6967692</v>
+        <v>1000</v>
       </c>
       <c r="H184" t="n">
-        <v>6967692</v>
+        <v>1000</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>7246400</v>
+        <v>1000</v>
       </c>
       <c r="K184" t="n">
-        <v>7246400</v>
+        <v>1000</v>
       </c>
       <c r="L184" t="n">
-        <v>7536256</v>
+        <v>1000</v>
       </c>
       <c r="M184" t="n">
-        <v>7536256</v>
+        <v>1000</v>
       </c>
       <c r="N184" t="n">
-        <v>7837706</v>
+        <v>1000</v>
       </c>
       <c r="O184" t="n">
-        <v>7837706</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="185">
@@ -9487,10 +9487,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D185" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E185" t="n">
         <v>1</v>
@@ -9499,31 +9499,31 @@
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>4455599</v>
+        <v>6502284</v>
       </c>
       <c r="H185" t="n">
-        <v>4455599</v>
+        <v>6502284</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>4652091</v>
+        <v>6502284</v>
       </c>
       <c r="K185" t="n">
-        <v>4652091</v>
+        <v>6502284</v>
       </c>
       <c r="L185" t="n">
-        <v>4857248</v>
+        <v>6502284</v>
       </c>
       <c r="M185" t="n">
-        <v>4857248</v>
+        <v>6502284</v>
       </c>
       <c r="N185" t="n">
-        <v>5071453</v>
+        <v>6502284</v>
       </c>
       <c r="O185" t="n">
-        <v>5071453</v>
+        <v>6502284</v>
       </c>
     </row>
     <row r="186">
@@ -9536,10 +9536,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D186" t="n">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E186" t="n">
         <v>1</v>
@@ -9548,31 +9548,31 @@
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>1000</v>
+        <v>293868791</v>
       </c>
       <c r="H186" t="n">
-        <v>1000</v>
+        <v>293868791</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>1000</v>
+        <v>301065169</v>
       </c>
       <c r="K186" t="n">
-        <v>1000</v>
+        <v>301065169</v>
       </c>
       <c r="L186" t="n">
-        <v>1000</v>
+        <v>308437774</v>
       </c>
       <c r="M186" t="n">
-        <v>1000</v>
+        <v>308437774</v>
       </c>
       <c r="N186" t="n">
-        <v>1000</v>
+        <v>315990923</v>
       </c>
       <c r="O186" t="n">
-        <v>1000</v>
+        <v>315990923</v>
       </c>
     </row>
     <row r="187">
@@ -9585,43 +9585,43 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D187" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E187" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>1033274</v>
+        <v>21801367</v>
       </c>
       <c r="H187" t="n">
-        <v>1033274</v>
+        <v>21801367</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>1033274</v>
+        <v>22335248</v>
       </c>
       <c r="K187" t="n">
-        <v>1033274</v>
+        <v>22335248</v>
       </c>
       <c r="L187" t="n">
-        <v>1033274</v>
+        <v>22882203</v>
       </c>
       <c r="M187" t="n">
-        <v>1033274</v>
+        <v>22882203</v>
       </c>
       <c r="N187" t="n">
-        <v>1033274</v>
+        <v>23442552</v>
       </c>
       <c r="O187" t="n">
-        <v>1033274</v>
+        <v>23442552</v>
       </c>
     </row>
     <row r="188">
@@ -9634,10 +9634,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D188" t="n">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="E188" t="n">
         <v>1</v>
@@ -9646,31 +9646,31 @@
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>5109300</v>
+        <v>114990309</v>
       </c>
       <c r="H188" t="n">
-        <v>5109300</v>
+        <v>114990309</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>0</v>
+        <v>119589921</v>
       </c>
       <c r="K188" t="n">
-        <v>0</v>
+        <v>119589921</v>
       </c>
       <c r="L188" t="n">
-        <v>0</v>
+        <v>124373518</v>
       </c>
       <c r="M188" t="n">
-        <v>0</v>
+        <v>124373518</v>
       </c>
       <c r="N188" t="n">
-        <v>0</v>
+        <v>129348459</v>
       </c>
       <c r="O188" t="n">
-        <v>0</v>
+        <v>129348459</v>
       </c>
     </row>
     <row r="189">
@@ -9683,10 +9683,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="E189" t="n">
         <v>1</v>
@@ -9695,31 +9695,31 @@
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>213137271</v>
+        <v>465500</v>
       </c>
       <c r="H189" t="n">
-        <v>213137271</v>
+        <v>465500</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>221662762</v>
+        <v>0</v>
       </c>
       <c r="K189" t="n">
-        <v>221662762</v>
+        <v>0</v>
       </c>
       <c r="L189" t="n">
-        <v>230529272</v>
+        <v>0</v>
       </c>
       <c r="M189" t="n">
-        <v>230529272</v>
+        <v>0</v>
       </c>
       <c r="N189" t="n">
-        <v>239750443</v>
+        <v>0</v>
       </c>
       <c r="O189" t="n">
-        <v>239750443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -9732,7 +9732,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D190" t="n">
         <v>10</v>
@@ -9744,31 +9744,31 @@
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>293868791</v>
+        <v>42997668</v>
       </c>
       <c r="H190" t="n">
-        <v>293868791</v>
+        <v>42997668</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>301065169</v>
+        <v>42997668</v>
       </c>
       <c r="K190" t="n">
-        <v>301065169</v>
+        <v>42997668</v>
       </c>
       <c r="L190" t="n">
-        <v>308437774</v>
+        <v>42997668</v>
       </c>
       <c r="M190" t="n">
-        <v>308437774</v>
+        <v>42997668</v>
       </c>
       <c r="N190" t="n">
-        <v>315990923</v>
+        <v>42997668</v>
       </c>
       <c r="O190" t="n">
-        <v>315990923</v>
+        <v>42997668</v>
       </c>
     </row>
     <row r="191">
@@ -9787,37 +9787,37 @@
         <v>10</v>
       </c>
       <c r="E191" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G191" t="n">
-        <v>21801367</v>
+        <v>6967692</v>
       </c>
       <c r="H191" t="n">
-        <v>21801367</v>
+        <v>6967692</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>22335248</v>
+        <v>7246400</v>
       </c>
       <c r="K191" t="n">
-        <v>22335248</v>
+        <v>7246400</v>
       </c>
       <c r="L191" t="n">
-        <v>22882203</v>
+        <v>7536256</v>
       </c>
       <c r="M191" t="n">
-        <v>22882203</v>
+        <v>7536256</v>
       </c>
       <c r="N191" t="n">
-        <v>23442552</v>
+        <v>7837706</v>
       </c>
       <c r="O191" t="n">
-        <v>23442552</v>
+        <v>7837706</v>
       </c>
     </row>
     <row r="192">
@@ -9830,10 +9830,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D192" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E192" t="n">
         <v>1</v>
@@ -9842,31 +9842,31 @@
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>301739317</v>
+        <v>1033274</v>
       </c>
       <c r="H192" t="n">
-        <v>301739317</v>
+        <v>1033274</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>313808890</v>
+        <v>1033274</v>
       </c>
       <c r="K192" t="n">
-        <v>313808890</v>
+        <v>1033274</v>
       </c>
       <c r="L192" t="n">
-        <v>326361245</v>
+        <v>1033274</v>
       </c>
       <c r="M192" t="n">
-        <v>326361245</v>
+        <v>1033274</v>
       </c>
       <c r="N192" t="n">
-        <v>339415695</v>
+        <v>1033274</v>
       </c>
       <c r="O192" t="n">
-        <v>339415695</v>
+        <v>1033274</v>
       </c>
     </row>
     <row r="193">
@@ -10075,43 +10075,43 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D197" t="n">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>3000</v>
+        <v>13543</v>
       </c>
       <c r="H197" t="n">
-        <v>3000</v>
+        <v>13543</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>0</v>
+        <v>13743</v>
       </c>
       <c r="K197" t="n">
-        <v>3120</v>
+        <v>13743</v>
       </c>
       <c r="L197" t="n">
-        <v>0</v>
+        <v>13946</v>
       </c>
       <c r="M197" t="n">
-        <v>3249</v>
+        <v>13946</v>
       </c>
       <c r="N197" t="n">
-        <v>0</v>
+        <v>14152</v>
       </c>
       <c r="O197" t="n">
-        <v>3378</v>
+        <v>14152</v>
       </c>
     </row>
     <row r="198">
@@ -10124,43 +10124,43 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D198" t="n">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>13543</v>
+        <v>34325552</v>
       </c>
       <c r="H198" t="n">
-        <v>13543</v>
+        <v>34325552</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
       <c r="J198" t="n">
-        <v>13743</v>
+        <v>34325552</v>
       </c>
       <c r="K198" t="n">
-        <v>13743</v>
+        <v>34325552</v>
       </c>
       <c r="L198" t="n">
-        <v>13946</v>
+        <v>34325552</v>
       </c>
       <c r="M198" t="n">
-        <v>13946</v>
+        <v>34325552</v>
       </c>
       <c r="N198" t="n">
-        <v>14152</v>
+        <v>34325552</v>
       </c>
       <c r="O198" t="n">
-        <v>14152</v>
+        <v>34325552</v>
       </c>
     </row>
     <row r="199">
@@ -10173,10 +10173,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="n">
         <v>1</v>
@@ -10185,31 +10185,31 @@
         <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>34325552</v>
+        <v>1303750929</v>
       </c>
       <c r="H199" t="n">
-        <v>34325552</v>
+        <v>1303750929</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>34325552</v>
+        <v>1336131387</v>
       </c>
       <c r="K199" t="n">
-        <v>34325552</v>
+        <v>1336131387</v>
       </c>
       <c r="L199" t="n">
-        <v>34325552</v>
+        <v>1355906132</v>
       </c>
       <c r="M199" t="n">
-        <v>34325552</v>
+        <v>1355906132</v>
       </c>
       <c r="N199" t="n">
-        <v>34325552</v>
+        <v>1375973543</v>
       </c>
       <c r="O199" t="n">
-        <v>34325552</v>
+        <v>1375973543</v>
       </c>
     </row>
     <row r="200">
@@ -10222,43 +10222,43 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D200" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E200" t="n">
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G200" t="n">
-        <v>1303750929</v>
+        <v>3000</v>
       </c>
       <c r="H200" t="n">
-        <v>1303750929</v>
+        <v>3000</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>1336131387</v>
+        <v>3120</v>
       </c>
       <c r="K200" t="n">
-        <v>1336131387</v>
+        <v>3120</v>
       </c>
       <c r="L200" t="n">
-        <v>1355906132</v>
+        <v>3249</v>
       </c>
       <c r="M200" t="n">
-        <v>1355906132</v>
+        <v>3249</v>
       </c>
       <c r="N200" t="n">
-        <v>1375973543</v>
+        <v>3378</v>
       </c>
       <c r="O200" t="n">
-        <v>1375973543</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="201">
@@ -10271,43 +10271,43 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D201" t="n">
         <v>10</v>
       </c>
       <c r="E201" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>3340494</v>
+        <v>1052100</v>
       </c>
       <c r="H201" t="n">
-        <v>3340494</v>
+        <v>1052100</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>3422298</v>
+        <v>1052100</v>
       </c>
       <c r="K201" t="n">
-        <v>3422298</v>
+        <v>1052100</v>
       </c>
       <c r="L201" t="n">
-        <v>3506105</v>
+        <v>1052100</v>
       </c>
       <c r="M201" t="n">
-        <v>3506105</v>
+        <v>1052100</v>
       </c>
       <c r="N201" t="n">
-        <v>3591964</v>
+        <v>1052100</v>
       </c>
       <c r="O201" t="n">
-        <v>3591964</v>
+        <v>1052100</v>
       </c>
     </row>
     <row r="202">
@@ -10326,37 +10326,37 @@
         <v>10</v>
       </c>
       <c r="E202" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>2922925</v>
+        <v>3340494</v>
       </c>
       <c r="H202" t="n">
-        <v>2922925</v>
+        <v>3340494</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>3039842</v>
+        <v>3422298</v>
       </c>
       <c r="K202" t="n">
-        <v>3039842</v>
+        <v>3422298</v>
       </c>
       <c r="L202" t="n">
-        <v>3161436</v>
+        <v>3506105</v>
       </c>
       <c r="M202" t="n">
-        <v>3161436</v>
+        <v>3506105</v>
       </c>
       <c r="N202" t="n">
-        <v>3287893</v>
+        <v>3591964</v>
       </c>
       <c r="O202" t="n">
-        <v>3287893</v>
+        <v>3591964</v>
       </c>
     </row>
     <row r="203">
@@ -10421,7 +10421,7 @@
         <v>3</v>
       </c>
       <c r="D204" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E204" t="n">
         <v>1</v>
@@ -10430,31 +10430,31 @@
         <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>40000</v>
+        <v>2922925</v>
       </c>
       <c r="H204" t="n">
-        <v>40000</v>
+        <v>2922925</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>41600</v>
+        <v>3039842</v>
       </c>
       <c r="K204" t="n">
-        <v>41600</v>
+        <v>3039842</v>
       </c>
       <c r="L204" t="n">
-        <v>43264</v>
+        <v>3161436</v>
       </c>
       <c r="M204" t="n">
-        <v>43264</v>
+        <v>3161436</v>
       </c>
       <c r="N204" t="n">
-        <v>44995</v>
+        <v>3287893</v>
       </c>
       <c r="O204" t="n">
-        <v>44995</v>
+        <v>3287893</v>
       </c>
     </row>
     <row r="205">
@@ -10467,10 +10467,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D205" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E205" t="n">
         <v>1</v>
@@ -10479,31 +10479,31 @@
         <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>1052100</v>
+        <v>40000</v>
       </c>
       <c r="H205" t="n">
-        <v>1052100</v>
+        <v>40000</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>1052100</v>
+        <v>41600</v>
       </c>
       <c r="K205" t="n">
-        <v>1052100</v>
+        <v>41600</v>
       </c>
       <c r="L205" t="n">
-        <v>1052100</v>
+        <v>43264</v>
       </c>
       <c r="M205" t="n">
-        <v>1052100</v>
+        <v>43264</v>
       </c>
       <c r="N205" t="n">
-        <v>1052100</v>
+        <v>44995</v>
       </c>
       <c r="O205" t="n">
-        <v>1052100</v>
+        <v>44995</v>
       </c>
     </row>
     <row r="206">
@@ -10522,37 +10522,37 @@
         <v>10</v>
       </c>
       <c r="E206" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>1410967</v>
+        <v>6473885</v>
       </c>
       <c r="H206" t="n">
-        <v>1410967</v>
+        <v>6473885</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>1451523</v>
+        <v>6759383</v>
       </c>
       <c r="K206" t="n">
-        <v>1451523</v>
+        <v>6759383</v>
       </c>
       <c r="L206" t="n">
-        <v>1493245</v>
+        <v>7057472</v>
       </c>
       <c r="M206" t="n">
-        <v>1493245</v>
+        <v>7057472</v>
       </c>
       <c r="N206" t="n">
-        <v>1536166</v>
+        <v>7368707</v>
       </c>
       <c r="O206" t="n">
-        <v>1536166</v>
+        <v>7368707</v>
       </c>
     </row>
     <row r="207">
@@ -10614,7 +10614,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D208" t="n">
         <v>10</v>
@@ -10626,31 +10626,31 @@
         <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>6473885</v>
+        <v>17243430</v>
       </c>
       <c r="H208" t="n">
-        <v>6473885</v>
+        <v>17243430</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>6759383</v>
+        <v>17739064</v>
       </c>
       <c r="K208" t="n">
-        <v>6759383</v>
+        <v>17739064</v>
       </c>
       <c r="L208" t="n">
-        <v>7057472</v>
+        <v>18248944</v>
       </c>
       <c r="M208" t="n">
-        <v>7057472</v>
+        <v>18248944</v>
       </c>
       <c r="N208" t="n">
-        <v>7368707</v>
+        <v>18773480</v>
       </c>
       <c r="O208" t="n">
-        <v>7368707</v>
+        <v>18773480</v>
       </c>
     </row>
     <row r="209">
@@ -10663,43 +10663,43 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D209" t="n">
         <v>10</v>
       </c>
       <c r="E209" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F209" t="n">
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>17243430</v>
+        <v>1410967</v>
       </c>
       <c r="H209" t="n">
-        <v>17243430</v>
+        <v>1410967</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>17739064</v>
+        <v>1451523</v>
       </c>
       <c r="K209" t="n">
-        <v>17739064</v>
+        <v>1451523</v>
       </c>
       <c r="L209" t="n">
-        <v>18248944</v>
+        <v>1493245</v>
       </c>
       <c r="M209" t="n">
-        <v>18248944</v>
+        <v>1493245</v>
       </c>
       <c r="N209" t="n">
-        <v>18773480</v>
+        <v>1536166</v>
       </c>
       <c r="O209" t="n">
-        <v>18773480</v>
+        <v>1536166</v>
       </c>
     </row>
     <row r="210">
@@ -10712,43 +10712,43 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D210" t="n">
         <v>10</v>
       </c>
       <c r="E210" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>590237</v>
+        <v>9190097</v>
       </c>
       <c r="H210" t="n">
-        <v>590237</v>
+        <v>9190097</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
       <c r="J210" t="n">
-        <v>604691</v>
+        <v>9415148</v>
       </c>
       <c r="K210" t="n">
-        <v>604691</v>
+        <v>9415148</v>
       </c>
       <c r="L210" t="n">
-        <v>619499</v>
+        <v>9645710</v>
       </c>
       <c r="M210" t="n">
-        <v>619499</v>
+        <v>9645710</v>
       </c>
       <c r="N210" t="n">
-        <v>634670</v>
+        <v>9881919</v>
       </c>
       <c r="O210" t="n">
-        <v>634670</v>
+        <v>9881919</v>
       </c>
     </row>
     <row r="211">
@@ -10761,7 +10761,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D211" t="n">
         <v>10</v>
@@ -10773,31 +10773,31 @@
         <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>9190097</v>
+        <v>3634092</v>
       </c>
       <c r="H211" t="n">
-        <v>9190097</v>
+        <v>3634092</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
       <c r="J211" t="n">
-        <v>9415148</v>
+        <v>3794355</v>
       </c>
       <c r="K211" t="n">
-        <v>9415148</v>
+        <v>3794355</v>
       </c>
       <c r="L211" t="n">
-        <v>9645710</v>
+        <v>3961686</v>
       </c>
       <c r="M211" t="n">
-        <v>9645710</v>
+        <v>3961686</v>
       </c>
       <c r="N211" t="n">
-        <v>9881919</v>
+        <v>4136396</v>
       </c>
       <c r="O211" t="n">
-        <v>9881919</v>
+        <v>4136396</v>
       </c>
     </row>
     <row r="212">
@@ -10816,37 +10816,37 @@
         <v>10</v>
       </c>
       <c r="E212" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F212" t="n">
         <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>3634092</v>
+        <v>590237</v>
       </c>
       <c r="H212" t="n">
-        <v>3634092</v>
+        <v>590237</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>3794355</v>
+        <v>604691</v>
       </c>
       <c r="K212" t="n">
-        <v>3794355</v>
+        <v>604691</v>
       </c>
       <c r="L212" t="n">
-        <v>3961686</v>
+        <v>619499</v>
       </c>
       <c r="M212" t="n">
-        <v>3961686</v>
+        <v>619499</v>
       </c>
       <c r="N212" t="n">
-        <v>4136396</v>
+        <v>634670</v>
       </c>
       <c r="O212" t="n">
-        <v>4136396</v>
+        <v>634670</v>
       </c>
     </row>
     <row r="213">
@@ -10859,43 +10859,43 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D213" t="n">
         <v>10</v>
       </c>
       <c r="E213" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>11634469</v>
+        <v>1519408</v>
       </c>
       <c r="H213" t="n">
-        <v>11634469</v>
+        <v>1519408</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>11919379</v>
+        <v>1556616</v>
       </c>
       <c r="K213" t="n">
-        <v>11919379</v>
+        <v>1556616</v>
       </c>
       <c r="L213" t="n">
-        <v>12211266</v>
+        <v>1594736</v>
       </c>
       <c r="M213" t="n">
-        <v>12211266</v>
+        <v>1594736</v>
       </c>
       <c r="N213" t="n">
-        <v>12510301</v>
+        <v>1633789</v>
       </c>
       <c r="O213" t="n">
-        <v>12510301</v>
+        <v>1633789</v>
       </c>
     </row>
     <row r="214">
@@ -10914,37 +10914,37 @@
         <v>10</v>
       </c>
       <c r="E214" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>1519408</v>
+        <v>132010655</v>
       </c>
       <c r="H214" t="n">
-        <v>1519408</v>
+        <v>132010655</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>1556616</v>
+        <v>137832325</v>
       </c>
       <c r="K214" t="n">
-        <v>1556616</v>
+        <v>137832325</v>
       </c>
       <c r="L214" t="n">
-        <v>1594736</v>
+        <v>143910731</v>
       </c>
       <c r="M214" t="n">
-        <v>1594736</v>
+        <v>143910731</v>
       </c>
       <c r="N214" t="n">
-        <v>1633789</v>
+        <v>150257194</v>
       </c>
       <c r="O214" t="n">
-        <v>1633789</v>
+        <v>150257194</v>
       </c>
     </row>
     <row r="215">
@@ -10957,7 +10957,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D215" t="n">
         <v>10</v>
@@ -10969,31 +10969,31 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>132010655</v>
+        <v>11634469</v>
       </c>
       <c r="H215" t="n">
-        <v>132010655</v>
+        <v>11634469</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
       <c r="J215" t="n">
-        <v>137832325</v>
+        <v>11919379</v>
       </c>
       <c r="K215" t="n">
-        <v>137832325</v>
+        <v>11919379</v>
       </c>
       <c r="L215" t="n">
-        <v>143910731</v>
+        <v>12211266</v>
       </c>
       <c r="M215" t="n">
-        <v>143910731</v>
+        <v>12211266</v>
       </c>
       <c r="N215" t="n">
-        <v>150257194</v>
+        <v>12510301</v>
       </c>
       <c r="O215" t="n">
-        <v>150257194</v>
+        <v>12510301</v>
       </c>
     </row>
     <row r="216">
@@ -11012,37 +11012,37 @@
         <v>10</v>
       </c>
       <c r="E216" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F216" t="n">
         <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>836807</v>
+        <v>3994390</v>
       </c>
       <c r="H216" t="n">
-        <v>836807</v>
+        <v>3994390</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
       <c r="J216" t="n">
-        <v>857300</v>
+        <v>4154166</v>
       </c>
       <c r="K216" t="n">
-        <v>857300</v>
+        <v>4154166</v>
       </c>
       <c r="L216" t="n">
-        <v>878294</v>
+        <v>4320333</v>
       </c>
       <c r="M216" t="n">
-        <v>878294</v>
+        <v>4320333</v>
       </c>
       <c r="N216" t="n">
-        <v>899803</v>
+        <v>4493146</v>
       </c>
       <c r="O216" t="n">
-        <v>899803</v>
+        <v>4493146</v>
       </c>
     </row>
     <row r="217">
@@ -11055,43 +11055,43 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D217" t="n">
         <v>10</v>
       </c>
       <c r="E217" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>6822629</v>
+        <v>836807</v>
       </c>
       <c r="H217" t="n">
-        <v>6822629</v>
+        <v>836807</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
       <c r="J217" t="n">
-        <v>6989705</v>
+        <v>857300</v>
       </c>
       <c r="K217" t="n">
-        <v>6989705</v>
+        <v>857300</v>
       </c>
       <c r="L217" t="n">
-        <v>7160872</v>
+        <v>878294</v>
       </c>
       <c r="M217" t="n">
-        <v>7160872</v>
+        <v>878294</v>
       </c>
       <c r="N217" t="n">
-        <v>7336231</v>
+        <v>899803</v>
       </c>
       <c r="O217" t="n">
-        <v>7336231</v>
+        <v>899803</v>
       </c>
     </row>
     <row r="218">
@@ -11153,7 +11153,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D219" t="n">
         <v>10</v>
@@ -11165,31 +11165,31 @@
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>3994390</v>
+        <v>6822629</v>
       </c>
       <c r="H219" t="n">
-        <v>3994390</v>
+        <v>6822629</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>4154166</v>
+        <v>6989705</v>
       </c>
       <c r="K219" t="n">
-        <v>4154166</v>
+        <v>6989705</v>
       </c>
       <c r="L219" t="n">
-        <v>4320333</v>
+        <v>7160872</v>
       </c>
       <c r="M219" t="n">
-        <v>4320333</v>
+        <v>7160872</v>
       </c>
       <c r="N219" t="n">
-        <v>4493146</v>
+        <v>7336231</v>
       </c>
       <c r="O219" t="n">
-        <v>4493146</v>
+        <v>7336231</v>
       </c>
     </row>
     <row r="220">
@@ -11205,7 +11205,7 @@
         <v>3</v>
       </c>
       <c r="D220" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E220" t="n">
         <v>1</v>
@@ -11214,31 +11214,31 @@
         <v>0</v>
       </c>
       <c r="G220" t="n">
-        <v>986535640</v>
+        <v>947387</v>
       </c>
       <c r="H220" t="n">
-        <v>986535640</v>
+        <v>947387</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
       <c r="J220" t="n">
-        <v>1045727778</v>
+        <v>1004231</v>
       </c>
       <c r="K220" t="n">
-        <v>1045727778</v>
+        <v>1004231</v>
       </c>
       <c r="L220" t="n">
-        <v>1108471444</v>
+        <v>1064485</v>
       </c>
       <c r="M220" t="n">
-        <v>1108471444</v>
+        <v>1064485</v>
       </c>
       <c r="N220" t="n">
-        <v>1174979732</v>
+        <v>1128354</v>
       </c>
       <c r="O220" t="n">
-        <v>1174979732</v>
+        <v>1128354</v>
       </c>
     </row>
     <row r="221">
@@ -11254,7 +11254,7 @@
         <v>3</v>
       </c>
       <c r="D221" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E221" t="n">
         <v>1</v>
@@ -11263,31 +11263,31 @@
         <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>947387</v>
+        <v>986535640</v>
       </c>
       <c r="H221" t="n">
-        <v>947387</v>
+        <v>986535640</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>1004231</v>
+        <v>1045727778</v>
       </c>
       <c r="K221" t="n">
-        <v>1004231</v>
+        <v>1045727778</v>
       </c>
       <c r="L221" t="n">
-        <v>1064485</v>
+        <v>1108471444</v>
       </c>
       <c r="M221" t="n">
-        <v>1064485</v>
+        <v>1108471444</v>
       </c>
       <c r="N221" t="n">
-        <v>1128354</v>
+        <v>1174979732</v>
       </c>
       <c r="O221" t="n">
-        <v>1128354</v>
+        <v>1174979732</v>
       </c>
     </row>
     <row r="222">
@@ -11349,10 +11349,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E223" t="n">
         <v>1</v>
@@ -11361,31 +11361,31 @@
         <v>0</v>
       </c>
       <c r="G223" t="n">
-        <v>249451387</v>
+        <v>5020527027</v>
       </c>
       <c r="H223" t="n">
-        <v>249451387</v>
+        <v>5020527027</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>250000000</v>
+        <v>6329391221</v>
       </c>
       <c r="K223" t="n">
-        <v>250000000</v>
+        <v>6329391221</v>
       </c>
       <c r="L223" t="n">
-        <v>250000000</v>
+        <v>7909663446</v>
       </c>
       <c r="M223" t="n">
-        <v>250000000</v>
+        <v>7909663446</v>
       </c>
       <c r="N223" t="n">
-        <v>250000000</v>
+        <v>8911640715</v>
       </c>
       <c r="O223" t="n">
-        <v>250000000</v>
+        <v>8911640715</v>
       </c>
     </row>
     <row r="224">
@@ -11401,7 +11401,7 @@
         <v>2</v>
       </c>
       <c r="D224" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E224" t="n">
         <v>1</v>
@@ -11410,31 +11410,31 @@
         <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>1144708920</v>
+        <v>249451387</v>
       </c>
       <c r="H224" t="n">
-        <v>1144708920</v>
+        <v>249451387</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>1004713151</v>
+        <v>250000000</v>
       </c>
       <c r="K224" t="n">
-        <v>1004713151</v>
+        <v>250000000</v>
       </c>
       <c r="L224" t="n">
-        <v>865191842</v>
+        <v>250000000</v>
       </c>
       <c r="M224" t="n">
-        <v>865191842</v>
+        <v>250000000</v>
       </c>
       <c r="N224" t="n">
-        <v>728214035</v>
+        <v>250000000</v>
       </c>
       <c r="O224" t="n">
-        <v>728214035</v>
+        <v>250000000</v>
       </c>
     </row>
     <row r="225">
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D225" t="n">
         <v>10</v>
@@ -11459,31 +11459,31 @@
         <v>0</v>
       </c>
       <c r="G225" t="n">
-        <v>5020527027</v>
+        <v>1860660343</v>
       </c>
       <c r="H225" t="n">
-        <v>5020527027</v>
+        <v>1860660343</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
       <c r="J225" t="n">
-        <v>6329391221</v>
+        <v>1968471577</v>
       </c>
       <c r="K225" t="n">
-        <v>6329391221</v>
+        <v>1968471577</v>
       </c>
       <c r="L225" t="n">
-        <v>7909663446</v>
+        <v>2073427136</v>
       </c>
       <c r="M225" t="n">
-        <v>7909663446</v>
+        <v>2073427136</v>
       </c>
       <c r="N225" t="n">
-        <v>8911640715</v>
+        <v>2166715039</v>
       </c>
       <c r="O225" t="n">
-        <v>8911640715</v>
+        <v>2166715039</v>
       </c>
     </row>
     <row r="226">
@@ -11545,7 +11545,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D227" t="n">
         <v>10</v>
@@ -11557,31 +11557,31 @@
         <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>1860660343</v>
+        <v>1144708920</v>
       </c>
       <c r="H227" t="n">
-        <v>1860660343</v>
+        <v>1144708920</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
       <c r="J227" t="n">
-        <v>1968471577</v>
+        <v>1004713151</v>
       </c>
       <c r="K227" t="n">
-        <v>1968471577</v>
+        <v>1004713151</v>
       </c>
       <c r="L227" t="n">
-        <v>2073427136</v>
+        <v>865191842</v>
       </c>
       <c r="M227" t="n">
-        <v>2073427136</v>
+        <v>865191842</v>
       </c>
       <c r="N227" t="n">
-        <v>2166715039</v>
+        <v>728214035</v>
       </c>
       <c r="O227" t="n">
-        <v>2166715039</v>
+        <v>728214035</v>
       </c>
     </row>
     <row r="228">
@@ -11695,7 +11695,7 @@
         <v>3</v>
       </c>
       <c r="D230" t="n">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="E230" t="n">
         <v>3</v>
@@ -11704,31 +11704,31 @@
         <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>13498418</v>
+        <v>8096745</v>
       </c>
       <c r="H230" t="n">
-        <v>13498418</v>
+        <v>8096745</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
       <c r="J230" t="n">
-        <v>13498418</v>
+        <v>8339648</v>
       </c>
       <c r="K230" t="n">
-        <v>13498418</v>
+        <v>8339648</v>
       </c>
       <c r="L230" t="n">
-        <v>13498418</v>
+        <v>8589837</v>
       </c>
       <c r="M230" t="n">
-        <v>13498418</v>
+        <v>8589837</v>
       </c>
       <c r="N230" t="n">
-        <v>13498418</v>
+        <v>8847532</v>
       </c>
       <c r="O230" t="n">
-        <v>13498418</v>
+        <v>8847532</v>
       </c>
     </row>
     <row r="231">
@@ -11741,7 +11741,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D231" t="n">
         <v>10</v>
@@ -11753,31 +11753,31 @@
         <v>0</v>
       </c>
       <c r="G231" t="n">
-        <v>8096745</v>
+        <v>4415051</v>
       </c>
       <c r="H231" t="n">
-        <v>8096745</v>
+        <v>4415051</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
       <c r="J231" t="n">
-        <v>8339648</v>
+        <v>4547501</v>
       </c>
       <c r="K231" t="n">
-        <v>8339648</v>
+        <v>4547501</v>
       </c>
       <c r="L231" t="n">
-        <v>8589837</v>
+        <v>4683926</v>
       </c>
       <c r="M231" t="n">
-        <v>8589837</v>
+        <v>4683926</v>
       </c>
       <c r="N231" t="n">
-        <v>8847532</v>
+        <v>4824445</v>
       </c>
       <c r="O231" t="n">
-        <v>8847532</v>
+        <v>4824445</v>
       </c>
     </row>
     <row r="232">
@@ -11790,10 +11790,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D232" t="n">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E232" t="n">
         <v>3</v>
@@ -11802,31 +11802,31 @@
         <v>0</v>
       </c>
       <c r="G232" t="n">
-        <v>4415051</v>
+        <v>13498418</v>
       </c>
       <c r="H232" t="n">
-        <v>4415051</v>
+        <v>13498418</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
       <c r="J232" t="n">
-        <v>4547501</v>
+        <v>13498418</v>
       </c>
       <c r="K232" t="n">
-        <v>4547501</v>
+        <v>13498418</v>
       </c>
       <c r="L232" t="n">
-        <v>4683926</v>
+        <v>13498418</v>
       </c>
       <c r="M232" t="n">
-        <v>4683926</v>
+        <v>13498418</v>
       </c>
       <c r="N232" t="n">
-        <v>4824445</v>
+        <v>13498418</v>
       </c>
       <c r="O232" t="n">
-        <v>4824445</v>
+        <v>13498418</v>
       </c>
     </row>
     <row r="233">
@@ -23256,10 +23256,10 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D466" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E466" t="n">
         <v>1</v>
@@ -23268,31 +23268,31 @@
         <v>0</v>
       </c>
       <c r="G466" t="n">
-        <v>7552959</v>
+        <v>2568384</v>
       </c>
       <c r="H466" t="n">
-        <v>7552959</v>
+        <v>2568384</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
       </c>
       <c r="J466" t="n">
-        <v>0</v>
+        <v>2568384</v>
       </c>
       <c r="K466" t="n">
-        <v>7552959</v>
+        <v>2568384</v>
       </c>
       <c r="L466" t="n">
-        <v>0</v>
+        <v>2568384</v>
       </c>
       <c r="M466" t="n">
-        <v>7552959</v>
+        <v>2568384</v>
       </c>
       <c r="N466" t="n">
-        <v>0</v>
+        <v>2568384</v>
       </c>
       <c r="O466" t="n">
-        <v>7552959</v>
+        <v>2568384</v>
       </c>
     </row>
     <row r="467">
@@ -23305,10 +23305,10 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D467" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E467" t="n">
         <v>1</v>
@@ -23317,31 +23317,31 @@
         <v>0</v>
       </c>
       <c r="G467" t="n">
-        <v>27847404</v>
+        <v>163239566</v>
       </c>
       <c r="H467" t="n">
-        <v>27847404</v>
+        <v>163239566</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
       </c>
       <c r="J467" t="n">
-        <v>0</v>
+        <v>169769149</v>
       </c>
       <c r="K467" t="n">
-        <v>27847404</v>
+        <v>169769149</v>
       </c>
       <c r="L467" t="n">
-        <v>0</v>
+        <v>176559915</v>
       </c>
       <c r="M467" t="n">
-        <v>27847404</v>
+        <v>176559915</v>
       </c>
       <c r="N467" t="n">
-        <v>0</v>
+        <v>183622312</v>
       </c>
       <c r="O467" t="n">
-        <v>27847404</v>
+        <v>183622312</v>
       </c>
     </row>
     <row r="468">
@@ -23354,10 +23354,10 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D468" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E468" t="n">
         <v>1</v>
@@ -23366,31 +23366,31 @@
         <v>0</v>
       </c>
       <c r="G468" t="n">
-        <v>163239566</v>
+        <v>27847404</v>
       </c>
       <c r="H468" t="n">
-        <v>163239566</v>
+        <v>27847404</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
       </c>
       <c r="J468" t="n">
-        <v>169769149</v>
+        <v>27847404</v>
       </c>
       <c r="K468" t="n">
-        <v>169769149</v>
+        <v>27847404</v>
       </c>
       <c r="L468" t="n">
-        <v>176559915</v>
+        <v>27847404</v>
       </c>
       <c r="M468" t="n">
-        <v>176559915</v>
+        <v>27847404</v>
       </c>
       <c r="N468" t="n">
-        <v>183622312</v>
+        <v>27847404</v>
       </c>
       <c r="O468" t="n">
-        <v>183622312</v>
+        <v>27847404</v>
       </c>
     </row>
     <row r="469">
@@ -23403,10 +23403,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D469" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E469" t="n">
         <v>1</v>
@@ -23415,31 +23415,31 @@
         <v>0</v>
       </c>
       <c r="G469" t="n">
-        <v>2568384</v>
+        <v>7552959</v>
       </c>
       <c r="H469" t="n">
-        <v>2568384</v>
+        <v>7552959</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
       </c>
       <c r="J469" t="n">
-        <v>2568384</v>
+        <v>7552959</v>
       </c>
       <c r="K469" t="n">
-        <v>2568384</v>
+        <v>7552959</v>
       </c>
       <c r="L469" t="n">
-        <v>2568384</v>
+        <v>7552959</v>
       </c>
       <c r="M469" t="n">
-        <v>2568384</v>
+        <v>7552959</v>
       </c>
       <c r="N469" t="n">
-        <v>2568384</v>
+        <v>7552959</v>
       </c>
       <c r="O469" t="n">
-        <v>2568384</v>
+        <v>7552959</v>
       </c>
     </row>
     <row r="470">
@@ -23455,40 +23455,40 @@
         <v>3</v>
       </c>
       <c r="D470" t="n">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E470" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F470" t="n">
         <v>0</v>
       </c>
       <c r="G470" t="n">
-        <v>47340795</v>
+        <v>68015473</v>
       </c>
       <c r="H470" t="n">
-        <v>47340795</v>
+        <v>68015473</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
       </c>
       <c r="J470" t="n">
-        <v>49707776</v>
+        <v>71416247</v>
       </c>
       <c r="K470" t="n">
-        <v>49707776</v>
+        <v>71416247</v>
       </c>
       <c r="L470" t="n">
-        <v>52193226</v>
+        <v>74987061</v>
       </c>
       <c r="M470" t="n">
-        <v>52193226</v>
+        <v>74987061</v>
       </c>
       <c r="N470" t="n">
-        <v>54802887</v>
+        <v>78736414</v>
       </c>
       <c r="O470" t="n">
-        <v>54802887</v>
+        <v>78736414</v>
       </c>
     </row>
     <row r="471">
@@ -23501,43 +23501,43 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D471" t="n">
         <v>10</v>
       </c>
       <c r="E471" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F471" t="n">
         <v>0</v>
       </c>
       <c r="G471" t="n">
-        <v>422674856</v>
+        <v>47340795</v>
       </c>
       <c r="H471" t="n">
-        <v>422674856</v>
+        <v>47340795</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
       </c>
       <c r="J471" t="n">
-        <v>443808540</v>
+        <v>49707776</v>
       </c>
       <c r="K471" t="n">
-        <v>443808540</v>
+        <v>49707776</v>
       </c>
       <c r="L471" t="n">
-        <v>465998911</v>
+        <v>52193226</v>
       </c>
       <c r="M471" t="n">
-        <v>465998911</v>
+        <v>52193226</v>
       </c>
       <c r="N471" t="n">
-        <v>489298863</v>
+        <v>54802887</v>
       </c>
       <c r="O471" t="n">
-        <v>489298863</v>
+        <v>54802887</v>
       </c>
     </row>
     <row r="472">
@@ -23550,7 +23550,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D472" t="n">
         <v>10</v>
@@ -23562,31 +23562,31 @@
         <v>0</v>
       </c>
       <c r="G472" t="n">
-        <v>10144162308</v>
+        <v>422674856</v>
       </c>
       <c r="H472" t="n">
-        <v>10144162308</v>
+        <v>422674856</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
       </c>
       <c r="J472" t="n">
-        <v>10659827560</v>
+        <v>443808540</v>
       </c>
       <c r="K472" t="n">
-        <v>10659827560</v>
+        <v>443808540</v>
       </c>
       <c r="L472" t="n">
-        <v>11172774767</v>
+        <v>465998911</v>
       </c>
       <c r="M472" t="n">
-        <v>11172774767</v>
+        <v>465998911</v>
       </c>
       <c r="N472" t="n">
-        <v>11708704883</v>
+        <v>489298863</v>
       </c>
       <c r="O472" t="n">
-        <v>11708704883</v>
+        <v>489298863</v>
       </c>
     </row>
     <row r="473">
@@ -23599,7 +23599,7 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D473" t="n">
         <v>10</v>
@@ -23608,34 +23608,34 @@
         <v>1</v>
       </c>
       <c r="F473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G473" t="n">
-        <v>1389694094</v>
+        <v>13074424</v>
       </c>
       <c r="H473" t="n">
-        <v>1389694094</v>
+        <v>13074424</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
       </c>
       <c r="J473" t="n">
-        <v>1494355258</v>
+        <v>13728144</v>
       </c>
       <c r="K473" t="n">
-        <v>1494355258</v>
+        <v>13728144</v>
       </c>
       <c r="L473" t="n">
-        <v>1569073023</v>
+        <v>14414552</v>
       </c>
       <c r="M473" t="n">
-        <v>1569073023</v>
+        <v>14414552</v>
       </c>
       <c r="N473" t="n">
-        <v>1647526675</v>
+        <v>15135280</v>
       </c>
       <c r="O473" t="n">
-        <v>1647526675</v>
+        <v>15135280</v>
       </c>
     </row>
     <row r="474">
@@ -23648,10 +23648,10 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D474" t="n">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="E474" t="n">
         <v>1</v>
@@ -23660,31 +23660,31 @@
         <v>0</v>
       </c>
       <c r="G474" t="n">
-        <v>68015473</v>
+        <v>1389694094</v>
       </c>
       <c r="H474" t="n">
-        <v>68015473</v>
+        <v>1389694094</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
       </c>
       <c r="J474" t="n">
-        <v>71416247</v>
+        <v>1494355258</v>
       </c>
       <c r="K474" t="n">
-        <v>71416247</v>
+        <v>1494355258</v>
       </c>
       <c r="L474" t="n">
-        <v>74987061</v>
+        <v>1569073023</v>
       </c>
       <c r="M474" t="n">
-        <v>74987061</v>
+        <v>1569073023</v>
       </c>
       <c r="N474" t="n">
-        <v>78736414</v>
+        <v>1647526675</v>
       </c>
       <c r="O474" t="n">
-        <v>78736414</v>
+        <v>1647526675</v>
       </c>
     </row>
     <row r="475">
@@ -23718,19 +23718,19 @@
         <v>0</v>
       </c>
       <c r="J475" t="n">
-        <v>0</v>
+        <v>80595378</v>
       </c>
       <c r="K475" t="n">
         <v>80595378</v>
       </c>
       <c r="L475" t="n">
-        <v>0</v>
+        <v>84625151</v>
       </c>
       <c r="M475" t="n">
         <v>84625151</v>
       </c>
       <c r="N475" t="n">
-        <v>0</v>
+        <v>88856411</v>
       </c>
       <c r="O475" t="n">
         <v>88856411</v>
@@ -23755,34 +23755,34 @@
         <v>1</v>
       </c>
       <c r="F476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G476" t="n">
-        <v>13074424</v>
+        <v>10144162308</v>
       </c>
       <c r="H476" t="n">
-        <v>13074424</v>
+        <v>10144162308</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
       </c>
       <c r="J476" t="n">
-        <v>13728144</v>
+        <v>10659827560</v>
       </c>
       <c r="K476" t="n">
-        <v>13728144</v>
+        <v>10659827560</v>
       </c>
       <c r="L476" t="n">
-        <v>14414552</v>
+        <v>11172774767</v>
       </c>
       <c r="M476" t="n">
-        <v>14414552</v>
+        <v>11172774767</v>
       </c>
       <c r="N476" t="n">
-        <v>15135280</v>
+        <v>11708704883</v>
       </c>
       <c r="O476" t="n">
-        <v>15135280</v>
+        <v>11708704883</v>
       </c>
     </row>
     <row r="477">
@@ -23847,7 +23847,7 @@
         <v>3</v>
       </c>
       <c r="D478" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E478" t="n">
         <v>1</v>
@@ -23896,7 +23896,7 @@
         <v>3</v>
       </c>
       <c r="D479" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E479" t="n">
         <v>1</v>
@@ -23942,7 +23942,7 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D480" t="n">
         <v>31</v>
@@ -23954,31 +23954,31 @@
         <v>0</v>
       </c>
       <c r="G480" t="n">
-        <v>36485544</v>
+        <v>2500000</v>
       </c>
       <c r="H480" t="n">
-        <v>36485544</v>
+        <v>2500000</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
       </c>
       <c r="J480" t="n">
-        <v>38094556</v>
+        <v>2500000</v>
       </c>
       <c r="K480" t="n">
-        <v>38094556</v>
+        <v>2500000</v>
       </c>
       <c r="L480" t="n">
-        <v>39774526</v>
+        <v>2500000</v>
       </c>
       <c r="M480" t="n">
-        <v>39774526</v>
+        <v>2500000</v>
       </c>
       <c r="N480" t="n">
-        <v>41528583</v>
+        <v>2500000</v>
       </c>
       <c r="O480" t="n">
-        <v>41528583</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="481">
@@ -23991,7 +23991,7 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D481" t="n">
         <v>31</v>
@@ -24003,31 +24003,31 @@
         <v>0</v>
       </c>
       <c r="G481" t="n">
-        <v>2500000</v>
+        <v>36485544</v>
       </c>
       <c r="H481" t="n">
-        <v>2500000</v>
+        <v>36485544</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
       </c>
       <c r="J481" t="n">
-        <v>2500000</v>
+        <v>38094556</v>
       </c>
       <c r="K481" t="n">
-        <v>2500000</v>
+        <v>38094556</v>
       </c>
       <c r="L481" t="n">
-        <v>2500000</v>
+        <v>39774526</v>
       </c>
       <c r="M481" t="n">
-        <v>2500000</v>
+        <v>39774526</v>
       </c>
       <c r="N481" t="n">
-        <v>2500000</v>
+        <v>41528583</v>
       </c>
       <c r="O481" t="n">
-        <v>2500000</v>
+        <v>41528583</v>
       </c>
     </row>
     <row r="482">
@@ -24092,7 +24092,7 @@
         <v>3</v>
       </c>
       <c r="D483" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E483" t="n">
         <v>1</v>
@@ -24101,31 +24101,31 @@
         <v>0</v>
       </c>
       <c r="G483" t="n">
-        <v>91711002</v>
+        <v>34326424</v>
       </c>
       <c r="H483" t="n">
-        <v>91711002</v>
+        <v>34326424</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
       </c>
       <c r="J483" t="n">
-        <v>95379442</v>
+        <v>35840219</v>
       </c>
       <c r="K483" t="n">
-        <v>95379442</v>
+        <v>35840219</v>
       </c>
       <c r="L483" t="n">
-        <v>99194620</v>
+        <v>37420773</v>
       </c>
       <c r="M483" t="n">
-        <v>99194620</v>
+        <v>37420773</v>
       </c>
       <c r="N483" t="n">
-        <v>103162405</v>
+        <v>39071029</v>
       </c>
       <c r="O483" t="n">
-        <v>103162405</v>
+        <v>39071029</v>
       </c>
     </row>
     <row r="484">
@@ -24190,7 +24190,7 @@
         <v>3</v>
       </c>
       <c r="D485" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E485" t="n">
         <v>1</v>
@@ -24199,31 +24199,31 @@
         <v>0</v>
       </c>
       <c r="G485" t="n">
-        <v>34326424</v>
+        <v>91711002</v>
       </c>
       <c r="H485" t="n">
-        <v>34326424</v>
+        <v>91711002</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
       </c>
       <c r="J485" t="n">
-        <v>35840219</v>
+        <v>95379442</v>
       </c>
       <c r="K485" t="n">
-        <v>35840219</v>
+        <v>95379442</v>
       </c>
       <c r="L485" t="n">
-        <v>37420773</v>
+        <v>99194620</v>
       </c>
       <c r="M485" t="n">
-        <v>37420773</v>
+        <v>99194620</v>
       </c>
       <c r="N485" t="n">
-        <v>39071029</v>
+        <v>103162405</v>
       </c>
       <c r="O485" t="n">
-        <v>39071029</v>
+        <v>103162405</v>
       </c>
     </row>
     <row r="486">
@@ -24236,7 +24236,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D486" t="n">
         <v>60</v>
@@ -24248,31 +24248,31 @@
         <v>0</v>
       </c>
       <c r="G486" t="n">
-        <v>15799000</v>
+        <v>1000</v>
       </c>
       <c r="H486" t="n">
-        <v>15799000</v>
+        <v>1000</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
       </c>
       <c r="J486" t="n">
-        <v>15799000</v>
+        <v>1000</v>
       </c>
       <c r="K486" t="n">
-        <v>15799000</v>
+        <v>1000</v>
       </c>
       <c r="L486" t="n">
-        <v>15799000</v>
+        <v>1000</v>
       </c>
       <c r="M486" t="n">
-        <v>15799000</v>
+        <v>1000</v>
       </c>
       <c r="N486" t="n">
-        <v>15799000</v>
+        <v>1000</v>
       </c>
       <c r="O486" t="n">
-        <v>15799000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="487">
@@ -24285,7 +24285,7 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D487" t="n">
         <v>60</v>
@@ -24297,31 +24297,31 @@
         <v>0</v>
       </c>
       <c r="G487" t="n">
-        <v>1000</v>
+        <v>15799000</v>
       </c>
       <c r="H487" t="n">
-        <v>1000</v>
+        <v>15799000</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
       </c>
       <c r="J487" t="n">
-        <v>1000</v>
+        <v>15799000</v>
       </c>
       <c r="K487" t="n">
-        <v>1000</v>
+        <v>15799000</v>
       </c>
       <c r="L487" t="n">
-        <v>1000</v>
+        <v>15799000</v>
       </c>
       <c r="M487" t="n">
-        <v>1000</v>
+        <v>15799000</v>
       </c>
       <c r="N487" t="n">
-        <v>1000</v>
+        <v>15799000</v>
       </c>
       <c r="O487" t="n">
-        <v>1000</v>
+        <v>15799000</v>
       </c>
     </row>
     <row r="488">
@@ -24383,7 +24383,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D489" t="n">
         <v>10</v>
@@ -24395,31 +24395,31 @@
         <v>0</v>
       </c>
       <c r="G489" t="n">
-        <v>197310427</v>
+        <v>256055154</v>
       </c>
       <c r="H489" t="n">
-        <v>197310427</v>
+        <v>256055154</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
       </c>
       <c r="J489" t="n">
-        <v>197310427</v>
+        <v>266297360</v>
       </c>
       <c r="K489" t="n">
-        <v>197310427</v>
+        <v>266297360</v>
       </c>
       <c r="L489" t="n">
-        <v>197310427</v>
+        <v>276949254</v>
       </c>
       <c r="M489" t="n">
-        <v>197310427</v>
+        <v>276949254</v>
       </c>
       <c r="N489" t="n">
-        <v>197310427</v>
+        <v>288027224</v>
       </c>
       <c r="O489" t="n">
-        <v>197310427</v>
+        <v>288027224</v>
       </c>
     </row>
     <row r="490">
@@ -24432,43 +24432,43 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D490" t="n">
         <v>10</v>
       </c>
       <c r="E490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F490" t="n">
         <v>0</v>
       </c>
       <c r="G490" t="n">
-        <v>256055154</v>
+        <v>51834000</v>
       </c>
       <c r="H490" t="n">
-        <v>256055154</v>
+        <v>51834000</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
       </c>
       <c r="J490" t="n">
-        <v>266297360</v>
+        <v>51834000</v>
       </c>
       <c r="K490" t="n">
-        <v>266297360</v>
+        <v>51834000</v>
       </c>
       <c r="L490" t="n">
-        <v>276949254</v>
+        <v>51834000</v>
       </c>
       <c r="M490" t="n">
-        <v>276949254</v>
+        <v>51834000</v>
       </c>
       <c r="N490" t="n">
-        <v>288027224</v>
+        <v>51834000</v>
       </c>
       <c r="O490" t="n">
-        <v>288027224</v>
+        <v>51834000</v>
       </c>
     </row>
     <row r="491">
@@ -24533,40 +24533,40 @@
         <v>5</v>
       </c>
       <c r="D492" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F492" t="n">
         <v>0</v>
       </c>
       <c r="G492" t="n">
-        <v>51834000</v>
+        <v>345000000</v>
       </c>
       <c r="H492" t="n">
-        <v>51834000</v>
+        <v>345000000</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
       </c>
       <c r="J492" t="n">
-        <v>51834000</v>
+        <v>0</v>
       </c>
       <c r="K492" t="n">
-        <v>51834000</v>
+        <v>0</v>
       </c>
       <c r="L492" t="n">
-        <v>51834000</v>
+        <v>0</v>
       </c>
       <c r="M492" t="n">
-        <v>51834000</v>
+        <v>0</v>
       </c>
       <c r="N492" t="n">
-        <v>51834000</v>
+        <v>0</v>
       </c>
       <c r="O492" t="n">
-        <v>51834000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -24582,7 +24582,7 @@
         <v>5</v>
       </c>
       <c r="D493" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E493" t="n">
         <v>1</v>
@@ -24591,31 +24591,31 @@
         <v>0</v>
       </c>
       <c r="G493" t="n">
-        <v>345000000</v>
+        <v>197310427</v>
       </c>
       <c r="H493" t="n">
-        <v>345000000</v>
+        <v>197310427</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
       </c>
       <c r="J493" t="n">
-        <v>0</v>
+        <v>197310427</v>
       </c>
       <c r="K493" t="n">
-        <v>0</v>
+        <v>197310427</v>
       </c>
       <c r="L493" t="n">
-        <v>0</v>
+        <v>197310427</v>
       </c>
       <c r="M493" t="n">
-        <v>0</v>
+        <v>197310427</v>
       </c>
       <c r="N493" t="n">
-        <v>0</v>
+        <v>197310427</v>
       </c>
       <c r="O493" t="n">
-        <v>0</v>
+        <v>197310427</v>
       </c>
     </row>
     <row r="494">
@@ -24873,10 +24873,10 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D499" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E499" t="n">
         <v>1</v>
@@ -24885,31 +24885,31 @@
         <v>0</v>
       </c>
       <c r="G499" t="n">
-        <v>81000000</v>
+        <v>25000000</v>
       </c>
       <c r="H499" t="n">
-        <v>81000000</v>
+        <v>25000000</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
       </c>
       <c r="J499" t="n">
-        <v>82871100</v>
+        <v>26000000</v>
       </c>
       <c r="K499" t="n">
-        <v>82871100</v>
+        <v>26000000</v>
       </c>
       <c r="L499" t="n">
-        <v>84785422</v>
+        <v>27000000</v>
       </c>
       <c r="M499" t="n">
-        <v>84785422</v>
+        <v>27000000</v>
       </c>
       <c r="N499" t="n">
-        <v>86743965</v>
+        <v>28000000</v>
       </c>
       <c r="O499" t="n">
-        <v>86743965</v>
+        <v>28000000</v>
       </c>
     </row>
     <row r="500">
@@ -24925,7 +24925,7 @@
         <v>1</v>
       </c>
       <c r="D500" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E500" t="n">
         <v>1</v>
@@ -24934,31 +24934,31 @@
         <v>0</v>
       </c>
       <c r="G500" t="n">
-        <v>2490034838</v>
+        <v>81000000</v>
       </c>
       <c r="H500" t="n">
-        <v>2490034838</v>
+        <v>81000000</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
       </c>
       <c r="J500" t="n">
-        <v>2547554643</v>
+        <v>82871100</v>
       </c>
       <c r="K500" t="n">
-        <v>2547554643</v>
+        <v>82871100</v>
       </c>
       <c r="L500" t="n">
-        <v>2606403155</v>
+        <v>84785422</v>
       </c>
       <c r="M500" t="n">
-        <v>2606403155</v>
+        <v>84785422</v>
       </c>
       <c r="N500" t="n">
-        <v>2666611068</v>
+        <v>86743965</v>
       </c>
       <c r="O500" t="n">
-        <v>2666611068</v>
+        <v>86743965</v>
       </c>
     </row>
     <row r="501">
@@ -24974,40 +24974,40 @@
         <v>1</v>
       </c>
       <c r="D501" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E501" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F501" t="n">
         <v>0</v>
       </c>
       <c r="G501" t="n">
-        <v>4859876</v>
+        <v>2490034838</v>
       </c>
       <c r="H501" t="n">
-        <v>4859876</v>
+        <v>2490034838</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
       </c>
       <c r="J501" t="n">
-        <v>4972139</v>
+        <v>2547554643</v>
       </c>
       <c r="K501" t="n">
-        <v>4972139</v>
+        <v>2547554643</v>
       </c>
       <c r="L501" t="n">
-        <v>5086995</v>
+        <v>2606403155</v>
       </c>
       <c r="M501" t="n">
-        <v>5086995</v>
+        <v>2606403155</v>
       </c>
       <c r="N501" t="n">
-        <v>5204505</v>
+        <v>2666611068</v>
       </c>
       <c r="O501" t="n">
-        <v>5204505</v>
+        <v>2666611068</v>
       </c>
     </row>
     <row r="502">
@@ -25023,40 +25023,40 @@
         <v>1</v>
       </c>
       <c r="D502" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E502" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F502" t="n">
         <v>0</v>
       </c>
       <c r="G502" t="n">
-        <v>67669414</v>
+        <v>4859876</v>
       </c>
       <c r="H502" t="n">
-        <v>67669414</v>
+        <v>4859876</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
       </c>
       <c r="J502" t="n">
-        <v>69232577</v>
+        <v>4972139</v>
       </c>
       <c r="K502" t="n">
-        <v>69232577</v>
+        <v>4972139</v>
       </c>
       <c r="L502" t="n">
-        <v>70831850</v>
+        <v>5086995</v>
       </c>
       <c r="M502" t="n">
-        <v>70831850</v>
+        <v>5086995</v>
       </c>
       <c r="N502" t="n">
-        <v>72468066</v>
+        <v>5204505</v>
       </c>
       <c r="O502" t="n">
-        <v>72468066</v>
+        <v>5204505</v>
       </c>
     </row>
     <row r="503">
@@ -25069,10 +25069,10 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D503" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E503" t="n">
         <v>1</v>
@@ -25081,31 +25081,31 @@
         <v>0</v>
       </c>
       <c r="G503" t="n">
-        <v>25000000</v>
+        <v>67669414</v>
       </c>
       <c r="H503" t="n">
-        <v>25000000</v>
+        <v>67669414</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
       </c>
       <c r="J503" t="n">
-        <v>26000000</v>
+        <v>69232577</v>
       </c>
       <c r="K503" t="n">
-        <v>26000000</v>
+        <v>69232577</v>
       </c>
       <c r="L503" t="n">
-        <v>27000000</v>
+        <v>70831850</v>
       </c>
       <c r="M503" t="n">
-        <v>27000000</v>
+        <v>70831850</v>
       </c>
       <c r="N503" t="n">
-        <v>28000000</v>
+        <v>72468066</v>
       </c>
       <c r="O503" t="n">
-        <v>28000000</v>
+        <v>72468066</v>
       </c>
     </row>
     <row r="504">
@@ -25124,37 +25124,37 @@
         <v>10</v>
       </c>
       <c r="E504" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F504" t="n">
         <v>0</v>
       </c>
       <c r="G504" t="n">
-        <v>9514156425</v>
+        <v>9000000</v>
       </c>
       <c r="H504" t="n">
-        <v>9514156425</v>
+        <v>9000000</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
       </c>
       <c r="J504" t="n">
-        <v>9724726538</v>
+        <v>1000</v>
       </c>
       <c r="K504" t="n">
-        <v>9724726538</v>
+        <v>1000</v>
       </c>
       <c r="L504" t="n">
-        <v>9949367698</v>
+        <v>1000</v>
       </c>
       <c r="M504" t="n">
-        <v>9949367698</v>
+        <v>1000</v>
       </c>
       <c r="N504" t="n">
-        <v>10179198069</v>
+        <v>1000</v>
       </c>
       <c r="O504" t="n">
-        <v>10179198069</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="505">
@@ -25173,37 +25173,37 @@
         <v>10</v>
       </c>
       <c r="E505" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F505" t="n">
         <v>0</v>
       </c>
       <c r="G505" t="n">
-        <v>9000000</v>
+        <v>9514156425</v>
       </c>
       <c r="H505" t="n">
-        <v>9000000</v>
+        <v>9514156425</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
       </c>
       <c r="J505" t="n">
-        <v>1000</v>
+        <v>9724726538</v>
       </c>
       <c r="K505" t="n">
-        <v>1000</v>
+        <v>9724726538</v>
       </c>
       <c r="L505" t="n">
-        <v>1000</v>
+        <v>9949367698</v>
       </c>
       <c r="M505" t="n">
-        <v>1000</v>
+        <v>9949367698</v>
       </c>
       <c r="N505" t="n">
-        <v>1000</v>
+        <v>10179198069</v>
       </c>
       <c r="O505" t="n">
-        <v>1000</v>
+        <v>10179198069</v>
       </c>
     </row>
     <row r="506">
